--- a/MCM/Data/C类所有图书数据.xlsx
+++ b/MCM/Data/C类所有图书数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/intlyc/Documents/Research Code/MCM/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E73FCC6-8F36-974A-833E-802B7469B4C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD28DE4-FD00-2248-BAA2-025348AA1AFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2017/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/3</t>
+  </si>
+  <si>
+    <t>2017/4</t>
+  </si>
+  <si>
+    <t>2017/5</t>
+  </si>
+  <si>
+    <t>2017/6</t>
+  </si>
+  <si>
+    <t>2017/7</t>
+  </si>
+  <si>
+    <t>2017/8</t>
+  </si>
+  <si>
+    <t>2017/9</t>
+  </si>
+  <si>
+    <t>2017/10</t>
+  </si>
+  <si>
+    <t>2017/11</t>
+  </si>
+  <si>
+    <t>2017/12</t>
+  </si>
   <si>
     <t>2018/1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,13 +221,55 @@
   </si>
   <si>
     <t>C9销量</t>
+  </si>
+  <si>
+    <t>2016/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/3</t>
+  </si>
+  <si>
+    <t>2016/4</t>
+  </si>
+  <si>
+    <t>2016/5</t>
+  </si>
+  <si>
+    <t>2016/6</t>
+  </si>
+  <si>
+    <t>2016/7</t>
+  </si>
+  <si>
+    <t>2016/8</t>
+  </si>
+  <si>
+    <t>2016/9</t>
+  </si>
+  <si>
+    <t>2016/10</t>
+  </si>
+  <si>
+    <t>2016/11</t>
+  </si>
+  <si>
+    <t>2016/12</t>
+  </si>
+  <si>
+    <t>2021/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,13 +313,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,27 +322,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -287,22 +345,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -589,357 +638,2092 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37BE4B8-84BF-AF44-939C-0F5134520A2A}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
-        <v>-152</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-18</v>
-      </c>
-      <c r="E2" s="4">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
-        <v>453</v>
-      </c>
-      <c r="D3" s="4">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
-        <v>-172</v>
-      </c>
-      <c r="D4" s="4">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-25</v>
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1112</v>
-      </c>
-      <c r="C5" s="4">
-        <v>94</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-3</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>903</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>952</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1561</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-49</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>80</v>
-      </c>
-      <c r="C8" s="4">
-        <v>276</v>
-      </c>
-      <c r="D8" s="4">
-        <v>646</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4701</v>
+      </c>
+      <c r="I8">
+        <v>4741</v>
+      </c>
+      <c r="J8">
+        <v>3701</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4">
-        <v>174</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-36</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>577</v>
+      </c>
+      <c r="I9">
+        <v>769</v>
+      </c>
+      <c r="J9">
+        <v>687</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
-        <v>-7</v>
-      </c>
-      <c r="D10" s="4">
-        <v>682</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>787</v>
+      </c>
+      <c r="I10">
+        <v>1263</v>
+      </c>
+      <c r="J10">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>562</v>
-      </c>
-      <c r="C11" s="4">
-        <v>77</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>101</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+      <c r="J11">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>-206</v>
-      </c>
-      <c r="C12" s="4">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>446</v>
+      </c>
+      <c r="I12">
+        <v>426</v>
+      </c>
+      <c r="J12">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1598</v>
+      </c>
+      <c r="I13">
+        <v>1656</v>
+      </c>
+      <c r="J13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>227</v>
+      </c>
+      <c r="I14">
+        <v>156</v>
+      </c>
+      <c r="J14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>866</v>
+      </c>
+      <c r="I15">
+        <v>1238</v>
+      </c>
+      <c r="J15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>272</v>
+      </c>
+      <c r="I16">
+        <v>278</v>
+      </c>
+      <c r="J16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1132</v>
+      </c>
+      <c r="I17">
+        <v>1359</v>
+      </c>
+      <c r="J17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>414</v>
+      </c>
+      <c r="I18">
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4502</v>
+      </c>
+      <c r="I19">
+        <v>4520</v>
+      </c>
+      <c r="J19">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2015</v>
+      </c>
+      <c r="I20">
+        <v>1406</v>
+      </c>
+      <c r="J20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2573</v>
+      </c>
+      <c r="I21">
+        <v>1713</v>
+      </c>
+      <c r="J21">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2537</v>
+      </c>
+      <c r="I22">
+        <v>2891</v>
+      </c>
+      <c r="J22">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1555</v>
+      </c>
+      <c r="I23">
+        <v>1868</v>
+      </c>
+      <c r="J23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>126</v>
+      </c>
+      <c r="I24">
+        <v>2256</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1668</v>
+      </c>
+      <c r="I25">
+        <v>883</v>
+      </c>
+      <c r="J25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>11148</v>
+      </c>
+      <c r="I26">
+        <v>12021</v>
+      </c>
+      <c r="J26">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>12026</v>
+      </c>
+      <c r="I28">
+        <v>12114</v>
+      </c>
+      <c r="J28">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>1112</v>
+      </c>
+      <c r="C29">
+        <v>1112</v>
+      </c>
+      <c r="D29">
+        <v>1312</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1460</v>
+      </c>
+      <c r="I29">
+        <v>1426</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>927</v>
+      </c>
+      <c r="C30">
+        <v>903</v>
+      </c>
+      <c r="D30">
+        <v>467</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1543</v>
+      </c>
+      <c r="I30">
+        <v>1530</v>
+      </c>
+      <c r="J30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>113</v>
+      </c>
+      <c r="C31">
+        <v>952</v>
+      </c>
+      <c r="D31">
+        <v>491</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>4364</v>
+      </c>
+      <c r="I31">
+        <v>3926</v>
+      </c>
+      <c r="J31">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>130</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>219</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1072</v>
+      </c>
+      <c r="I32">
+        <v>228</v>
+      </c>
+      <c r="J32">
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>626</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>-312</v>
+      </c>
+      <c r="I34">
+        <v>108</v>
+      </c>
+      <c r="J34">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>487</v>
+      </c>
+      <c r="C35">
+        <v>562</v>
+      </c>
+      <c r="D35">
+        <v>973</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>3751</v>
+      </c>
+      <c r="I35">
+        <v>3679</v>
+      </c>
+      <c r="J35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>-232</v>
+      </c>
+      <c r="C36">
+        <v>-206</v>
+      </c>
+      <c r="D36">
+        <v>336</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>6715</v>
+      </c>
+      <c r="I36">
+        <v>7321</v>
+      </c>
+      <c r="J36">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>161</v>
+      </c>
+      <c r="C37">
         <v>115</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D37">
+        <v>134</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>199</v>
+      </c>
+      <c r="I37">
+        <v>219</v>
+      </c>
+      <c r="J37">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>-203</v>
+      </c>
+      <c r="C38">
+        <v>-152</v>
+      </c>
+      <c r="D38">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <v>397</v>
+      </c>
+      <c r="F38">
+        <v>1019</v>
+      </c>
+      <c r="G38">
+        <v>1030</v>
+      </c>
+      <c r="H38">
+        <v>-844</v>
+      </c>
+      <c r="I38">
+        <v>-1944</v>
+      </c>
+      <c r="J38">
+        <v>-3065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>395</v>
+      </c>
+      <c r="C39">
+        <v>453</v>
+      </c>
+      <c r="D39">
+        <v>677</v>
+      </c>
+      <c r="E39">
+        <v>2303</v>
+      </c>
+      <c r="F39">
+        <v>1502</v>
+      </c>
+      <c r="G39">
+        <v>1511</v>
+      </c>
+      <c r="H39">
+        <v>293</v>
+      </c>
+      <c r="I39">
+        <v>293</v>
+      </c>
+      <c r="J39">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>-167</v>
+      </c>
+      <c r="C40">
+        <v>-172</v>
+      </c>
+      <c r="D40">
+        <v>-77</v>
+      </c>
+      <c r="E40">
+        <v>71</v>
+      </c>
+      <c r="F40">
+        <v>-24</v>
+      </c>
+      <c r="G40">
+        <v>-25</v>
+      </c>
+      <c r="H40">
+        <v>170</v>
+      </c>
+      <c r="I40">
+        <v>171</v>
+      </c>
+      <c r="J40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>70</v>
+      </c>
+      <c r="C41">
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>373</v>
+      </c>
+      <c r="E41">
+        <v>117</v>
+      </c>
+      <c r="F41">
+        <v>61</v>
+      </c>
+      <c r="G41">
+        <v>51</v>
+      </c>
+      <c r="H41">
+        <v>-1828</v>
+      </c>
+      <c r="I41">
+        <v>-949</v>
+      </c>
+      <c r="J41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>462</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>33</v>
+      </c>
+      <c r="H42">
+        <v>1355</v>
+      </c>
+      <c r="I42">
+        <v>1623</v>
+      </c>
+      <c r="J42">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>752</v>
+      </c>
+      <c r="C43">
+        <v>1561</v>
+      </c>
+      <c r="D43">
+        <v>994</v>
+      </c>
+      <c r="E43">
+        <v>849</v>
+      </c>
+      <c r="F43">
+        <v>1584</v>
+      </c>
+      <c r="G43">
+        <v>732</v>
+      </c>
+      <c r="H43">
+        <v>-395</v>
+      </c>
+      <c r="I43">
+        <v>-650</v>
+      </c>
+      <c r="J43">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>214</v>
+      </c>
+      <c r="C44">
+        <v>276</v>
+      </c>
+      <c r="D44">
+        <v>1220</v>
+      </c>
+      <c r="E44">
+        <v>46</v>
+      </c>
+      <c r="F44">
+        <v>173</v>
+      </c>
+      <c r="G44">
+        <v>28</v>
+      </c>
+      <c r="H44">
+        <v>-2622</v>
+      </c>
+      <c r="I44">
+        <v>-2512</v>
+      </c>
+      <c r="J44">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>142</v>
+      </c>
+      <c r="C45">
+        <v>174</v>
+      </c>
+      <c r="D45">
+        <v>412</v>
+      </c>
+      <c r="E45">
+        <v>684</v>
+      </c>
+      <c r="F45">
+        <v>901</v>
+      </c>
+      <c r="G45">
+        <v>736</v>
+      </c>
+      <c r="H45">
+        <v>-423</v>
+      </c>
+      <c r="I45">
+        <v>-78</v>
+      </c>
+      <c r="J45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>-7</v>
+      </c>
+      <c r="D46">
+        <v>2005</v>
+      </c>
+      <c r="E46">
+        <v>94</v>
+      </c>
+      <c r="F46">
+        <v>-3</v>
+      </c>
+      <c r="G46">
+        <v>39</v>
+      </c>
+      <c r="H46">
+        <v>150</v>
+      </c>
+      <c r="I46">
+        <v>48</v>
+      </c>
+      <c r="J46">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>77</v>
+      </c>
+      <c r="D47">
+        <v>-44</v>
+      </c>
+      <c r="E47">
+        <v>44</v>
+      </c>
+      <c r="F47">
+        <v>-67</v>
+      </c>
+      <c r="G47">
+        <v>-167</v>
+      </c>
+      <c r="H47">
+        <v>-3219</v>
+      </c>
+      <c r="I47">
+        <v>-3333</v>
+      </c>
+      <c r="J47">
+        <v>-1409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>873</v>
+      </c>
+      <c r="E48">
+        <v>382</v>
+      </c>
+      <c r="F48">
+        <v>240</v>
+      </c>
+      <c r="G48">
+        <v>160</v>
+      </c>
+      <c r="H48">
+        <v>-1518</v>
+      </c>
+      <c r="I48">
+        <v>-2646</v>
+      </c>
+      <c r="J48">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49">
         <v>80</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D49">
+        <v>260</v>
+      </c>
+      <c r="E49">
+        <v>367</v>
+      </c>
+      <c r="F49">
+        <v>5365</v>
+      </c>
+      <c r="G49">
+        <v>82</v>
+      </c>
+      <c r="H49">
+        <v>-2752</v>
+      </c>
+      <c r="I49">
+        <v>-2738</v>
+      </c>
+      <c r="J49">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>-18</v>
+      </c>
+      <c r="D50">
+        <v>618</v>
+      </c>
+      <c r="E50">
+        <v>62</v>
+      </c>
+      <c r="F50">
+        <v>-8</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>-2954</v>
+      </c>
+      <c r="I50">
+        <v>-1034</v>
+      </c>
+      <c r="J50">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>78</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>273</v>
+      </c>
+      <c r="E52">
+        <v>315</v>
+      </c>
+      <c r="F52">
+        <v>124</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>414</v>
+      </c>
+      <c r="I52">
+        <v>112</v>
+      </c>
+      <c r="J52">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53">
+        <v>-38</v>
+      </c>
+      <c r="C53">
+        <v>-3</v>
+      </c>
+      <c r="D53">
+        <v>97</v>
+      </c>
+      <c r="E53">
+        <v>378</v>
+      </c>
+      <c r="F53">
+        <v>156</v>
+      </c>
+      <c r="G53">
+        <v>86</v>
+      </c>
+      <c r="H53">
+        <v>336</v>
+      </c>
+      <c r="I53">
+        <v>287</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>71</v>
+      </c>
+      <c r="I54">
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>-49</v>
+      </c>
+      <c r="D55">
+        <v>132</v>
+      </c>
+      <c r="E55">
+        <v>309</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>-67</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>75</v>
+      </c>
+      <c r="J55">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>137</v>
+      </c>
+      <c r="C56">
+        <v>646</v>
+      </c>
+      <c r="D56">
+        <v>511</v>
+      </c>
+      <c r="E56">
+        <v>-87</v>
+      </c>
+      <c r="F56">
+        <v>-112</v>
+      </c>
+      <c r="G56">
+        <v>-185</v>
+      </c>
+      <c r="H56">
+        <v>152</v>
+      </c>
+      <c r="I56">
+        <v>92</v>
+      </c>
+      <c r="J56">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>-9</v>
+      </c>
+      <c r="C57">
+        <v>-36</v>
+      </c>
+      <c r="D57">
+        <v>279</v>
+      </c>
+      <c r="E57">
+        <v>88</v>
+      </c>
+      <c r="F57">
+        <v>-86</v>
+      </c>
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>594</v>
+      </c>
+      <c r="C58">
+        <v>682</v>
+      </c>
+      <c r="D58">
+        <v>626</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>-134</v>
+      </c>
+      <c r="G58">
+        <v>-62</v>
+      </c>
+      <c r="H58">
+        <v>-72</v>
+      </c>
+      <c r="I58">
+        <v>-144</v>
+      </c>
+      <c r="J58">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>346</v>
+      </c>
+      <c r="E59">
+        <v>33</v>
+      </c>
+      <c r="F59">
+        <v>21</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60">
+        <v>47</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>559</v>
+      </c>
+      <c r="E60">
+        <v>96</v>
+      </c>
+      <c r="F60">
+        <v>112</v>
+      </c>
+      <c r="G60">
+        <v>54</v>
+      </c>
+      <c r="H60">
+        <v>222</v>
+      </c>
+      <c r="I60">
+        <v>189</v>
+      </c>
+      <c r="J60">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61">
         <v>26</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="D61">
+        <v>174</v>
+      </c>
+      <c r="E61">
+        <v>94</v>
+      </c>
+      <c r="F61">
+        <v>-506</v>
+      </c>
+      <c r="G61">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="H61">
+        <v>885</v>
+      </c>
+      <c r="I61">
+        <v>560</v>
+      </c>
+      <c r="J61">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <v>126</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>114</v>
+      </c>
+      <c r="E62">
+        <v>-23</v>
+      </c>
+      <c r="F62">
+        <v>-63</v>
+      </c>
+      <c r="G62">
+        <v>-19</v>
+      </c>
+      <c r="H62">
+        <v>224</v>
+      </c>
+      <c r="I62">
+        <v>27</v>
+      </c>
+      <c r="J62">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>35</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>251</v>
+      </c>
+      <c r="E63">
+        <v>106</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64">
+        <v>-2</v>
+      </c>
+      <c r="C64">
+        <v>-25</v>
+      </c>
+      <c r="D64">
+        <v>98</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>-3</v>
+      </c>
+      <c r="G64">
+        <v>-1</v>
+      </c>
+      <c r="H64">
+        <v>-2</v>
+      </c>
+      <c r="I64">
+        <v>-331</v>
+      </c>
+      <c r="J64">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
+    <row r="65" spans="1:10">
+      <c r="A65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>-546</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MCM/Data/C类所有图书数据.xlsx
+++ b/MCM/Data/C类所有图书数据.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/intlyc/Documents/Research Code/MCM/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD28DE4-FD00-2248-BAA2-025348AA1AFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B978B9EA-4E53-F840-9BA9-AB909B8DC539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
   <si>
     <t>2017/1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,6 +264,125 @@
   <si>
     <t>2021/4</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1印刷数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2印刷数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3印刷数量</t>
+  </si>
+  <si>
+    <t>C4印刷数量</t>
+  </si>
+  <si>
+    <t>C5印刷数量</t>
+  </si>
+  <si>
+    <t>C6印刷数量</t>
+  </si>
+  <si>
+    <t>C7印刷数量</t>
+  </si>
+  <si>
+    <t>C8印刷数量</t>
+  </si>
+  <si>
+    <t>C9印刷数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1总销量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2总销量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3总销量</t>
+  </si>
+  <si>
+    <t>C4总销量</t>
+  </si>
+  <si>
+    <t>C5总销量</t>
+  </si>
+  <si>
+    <t>C6总销量</t>
+  </si>
+  <si>
+    <t>C7总销量</t>
+  </si>
+  <si>
+    <t>C8总销量</t>
+  </si>
+  <si>
+    <t>C9总销量</t>
+  </si>
+  <si>
+    <t>C1印刷库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2印刷库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3印刷库存</t>
+  </si>
+  <si>
+    <t>C4印刷库存</t>
+  </si>
+  <si>
+    <t>C5印刷库存</t>
+  </si>
+  <si>
+    <t>C6印刷库存</t>
+  </si>
+  <si>
+    <t>C7印刷库存</t>
+  </si>
+  <si>
+    <t>C8印刷库存</t>
+  </si>
+  <si>
+    <t>C9印刷库存</t>
+  </si>
+  <si>
+    <t>C1当前库存</t>
+  </si>
+  <si>
+    <t>C1当前库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2当前库存</t>
+  </si>
+  <si>
+    <t>C3当前库存</t>
+  </si>
+  <si>
+    <t>C4当前库存</t>
+  </si>
+  <si>
+    <t>C5当前库存</t>
+  </si>
+  <si>
+    <t>C6当前库存</t>
+  </si>
+  <si>
+    <t>C7当前库存</t>
+  </si>
+  <si>
+    <t>C8当前库存</t>
+  </si>
+  <si>
+    <t>C9当前库存</t>
   </si>
 </sst>
 </file>
@@ -638,2092 +758,6715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37BE4B8-84BF-AF44-939C-0F5134520A2A}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:AB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="T1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+      <c r="J8">
+        <v>5000</v>
+      </c>
+      <c r="Q8">
         <v>4701</v>
       </c>
-      <c r="I8">
+      <c r="R8">
         <v>4741</v>
       </c>
-      <c r="J8">
+      <c r="S8">
         <v>3701</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="Z8">
+        <v>5299</v>
+      </c>
+      <c r="AA8">
+        <v>5259</v>
+      </c>
+      <c r="AB8">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="Q9">
         <v>577</v>
       </c>
-      <c r="I9">
+      <c r="R9">
         <v>769</v>
       </c>
-      <c r="J9">
+      <c r="S9">
         <v>687</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="Z9">
+        <v>4722</v>
+      </c>
+      <c r="AA9">
+        <v>4490</v>
+      </c>
+      <c r="AB9">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="Q10">
         <v>787</v>
       </c>
-      <c r="I10">
+      <c r="R10">
         <v>1263</v>
       </c>
-      <c r="J10">
+      <c r="S10">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="Z10">
+        <v>3935</v>
+      </c>
+      <c r="AA10">
+        <v>3227</v>
+      </c>
+      <c r="AB10">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="Q11">
         <v>101</v>
       </c>
-      <c r="I11">
+      <c r="R11">
         <v>300</v>
       </c>
-      <c r="J11">
+      <c r="S11">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="Z11">
+        <v>3834</v>
+      </c>
+      <c r="AA11">
+        <v>2927</v>
+      </c>
+      <c r="AB11">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="J12">
+        <v>5000</v>
+      </c>
+      <c r="Q12">
         <v>446</v>
       </c>
-      <c r="I12">
+      <c r="R12">
         <v>426</v>
       </c>
-      <c r="J12">
+      <c r="S12">
         <v>205</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="Z12">
+        <v>3388</v>
+      </c>
+      <c r="AA12">
+        <v>2501</v>
+      </c>
+      <c r="AB12">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>10000</v>
+      </c>
+      <c r="I13">
+        <v>10000</v>
+      </c>
+      <c r="Q13">
         <v>1598</v>
       </c>
-      <c r="I13">
+      <c r="R13">
         <v>1656</v>
       </c>
-      <c r="J13">
+      <c r="S13">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="Z13">
+        <v>11790</v>
+      </c>
+      <c r="AA13">
+        <v>10845</v>
+      </c>
+      <c r="AB13">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="Q14">
         <v>227</v>
       </c>
-      <c r="I14">
+      <c r="R14">
         <v>156</v>
       </c>
-      <c r="J14">
+      <c r="S14">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="Z14">
+        <v>11563</v>
+      </c>
+      <c r="AA14">
+        <v>10689</v>
+      </c>
+      <c r="AB14">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="Q15">
         <v>866</v>
       </c>
-      <c r="I15">
+      <c r="R15">
         <v>1238</v>
       </c>
-      <c r="J15">
+      <c r="S15">
         <v>298</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="Z15">
+        <v>10697</v>
+      </c>
+      <c r="AA15">
+        <v>9451</v>
+      </c>
+      <c r="AB15">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="Q16">
         <v>272</v>
       </c>
-      <c r="I16">
+      <c r="R16">
         <v>278</v>
       </c>
-      <c r="J16">
+      <c r="S16">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="Z16">
+        <v>10425</v>
+      </c>
+      <c r="AA16">
+        <v>9173</v>
+      </c>
+      <c r="AB16">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="Q17">
         <v>1132</v>
       </c>
-      <c r="I17">
+      <c r="R17">
         <v>1359</v>
       </c>
-      <c r="J17">
+      <c r="S17">
         <v>154</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="Z17">
+        <v>9293</v>
+      </c>
+      <c r="AA17">
+        <v>7814</v>
+      </c>
+      <c r="AB17">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="Q18">
+        <v>414</v>
+      </c>
+      <c r="R18">
+        <v>48</v>
+      </c>
+      <c r="S18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>414</v>
-      </c>
-      <c r="I18">
-        <v>48</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="Z18">
+        <v>8879</v>
+      </c>
+      <c r="AA18">
+        <v>7766</v>
+      </c>
+      <c r="AB18">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="Q19">
         <v>4502</v>
       </c>
-      <c r="I19">
+      <c r="R19">
         <v>4520</v>
       </c>
-      <c r="J19">
+      <c r="S19">
         <v>1111</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="Z19">
+        <v>4377</v>
+      </c>
+      <c r="AA19">
+        <v>3246</v>
+      </c>
+      <c r="AB19">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>5000</v>
+      </c>
+      <c r="J20">
+        <v>5000</v>
+      </c>
+      <c r="Q20">
         <v>2015</v>
       </c>
-      <c r="I20">
+      <c r="R20">
         <v>1406</v>
       </c>
-      <c r="J20">
+      <c r="S20">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="Z20">
+        <v>7362</v>
+      </c>
+      <c r="AA20">
+        <v>1840</v>
+      </c>
+      <c r="AB20">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="Q21">
         <v>2573</v>
       </c>
-      <c r="I21">
+      <c r="R21">
         <v>1713</v>
       </c>
-      <c r="J21">
+      <c r="S21">
         <v>1600</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="Z21">
+        <v>4789</v>
+      </c>
+      <c r="AA21">
+        <v>127</v>
+      </c>
+      <c r="AB21">
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
+        <v>10000</v>
+      </c>
+      <c r="I22">
+        <v>15000</v>
+      </c>
+      <c r="Q22">
         <v>2537</v>
       </c>
-      <c r="I22">
+      <c r="R22">
         <v>2891</v>
       </c>
-      <c r="J22">
+      <c r="S22">
         <v>1625</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="Z22">
+        <v>12252</v>
+      </c>
+      <c r="AA22">
+        <v>12236</v>
+      </c>
+      <c r="AB22">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="Q23">
         <v>1555</v>
       </c>
-      <c r="I23">
+      <c r="R23">
         <v>1868</v>
       </c>
-      <c r="J23">
+      <c r="S23">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="Z23">
+        <v>10697</v>
+      </c>
+      <c r="AA23">
+        <v>10368</v>
+      </c>
+      <c r="AB23">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="Q24">
         <v>126</v>
       </c>
-      <c r="I24">
+      <c r="R24">
         <v>2256</v>
       </c>
-      <c r="J24">
+      <c r="S24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="Z24">
+        <v>10571</v>
+      </c>
+      <c r="AA24">
+        <v>8112</v>
+      </c>
+      <c r="AB24">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
+        <v>9860</v>
+      </c>
+      <c r="I25">
+        <v>10000</v>
+      </c>
+      <c r="Q25">
         <v>1668</v>
       </c>
-      <c r="I25">
+      <c r="R25">
         <v>883</v>
       </c>
-      <c r="J25">
+      <c r="S25">
         <v>1005</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="Z25">
+        <v>18763</v>
+      </c>
+      <c r="AA25">
+        <v>17229</v>
+      </c>
+      <c r="AB25">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="Q26">
         <v>11148</v>
       </c>
-      <c r="I26">
+      <c r="R26">
         <v>12021</v>
       </c>
-      <c r="J26">
+      <c r="S26">
         <v>1700</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="Z26">
+        <v>7615</v>
+      </c>
+      <c r="AA26">
+        <v>5208</v>
+      </c>
+      <c r="AB26">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27">
+      <c r="Q27">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="R27">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="S27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="Z27">
+        <v>7615</v>
+      </c>
+      <c r="AA27">
+        <v>5208</v>
+      </c>
+      <c r="AB27">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
+        <v>20000</v>
+      </c>
+      <c r="I28">
+        <v>20000</v>
+      </c>
+      <c r="J28">
+        <v>10000</v>
+      </c>
+      <c r="Q28">
         <v>12026</v>
       </c>
-      <c r="I28">
+      <c r="R28">
         <v>12114</v>
       </c>
-      <c r="J28">
+      <c r="S28">
         <v>2506</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="Z28">
+        <v>15589</v>
+      </c>
+      <c r="AA28">
+        <v>13094</v>
+      </c>
+      <c r="AB28">
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B29">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29">
+        <v>5000</v>
+      </c>
+      <c r="K29">
         <v>1112</v>
       </c>
-      <c r="C29">
+      <c r="L29">
         <v>1112</v>
       </c>
-      <c r="D29">
+      <c r="M29">
         <v>1312</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="Q29">
         <v>1460</v>
       </c>
-      <c r="I29">
+      <c r="R29">
         <v>1426</v>
       </c>
-      <c r="J29">
+      <c r="S29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="T29">
+        <v>3888</v>
+      </c>
+      <c r="U29">
+        <v>3888</v>
+      </c>
+      <c r="V29">
+        <v>3688</v>
+      </c>
+      <c r="Z29">
+        <v>14129</v>
+      </c>
+      <c r="AA29">
+        <v>11668</v>
+      </c>
+      <c r="AB29">
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30">
+      <c r="K30">
         <v>927</v>
       </c>
-      <c r="C30">
+      <c r="L30">
         <v>903</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>467</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="Q30">
         <v>1543</v>
       </c>
-      <c r="I30">
+      <c r="R30">
         <v>1530</v>
       </c>
-      <c r="J30">
+      <c r="S30">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="T30">
+        <v>2961</v>
+      </c>
+      <c r="U30">
+        <v>2985</v>
+      </c>
+      <c r="V30">
+        <v>3221</v>
+      </c>
+      <c r="Z30">
+        <v>12586</v>
+      </c>
+      <c r="AA30">
+        <v>10138</v>
+      </c>
+      <c r="AB30">
+        <v>9691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B31">
+      <c r="H31">
+        <v>6060</v>
+      </c>
+      <c r="I31">
+        <v>10000</v>
+      </c>
+      <c r="K31">
         <v>113</v>
       </c>
-      <c r="C31">
+      <c r="L31">
         <v>952</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>491</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="Q31">
         <v>4364</v>
       </c>
-      <c r="I31">
+      <c r="R31">
         <v>3926</v>
       </c>
-      <c r="J31">
+      <c r="S31">
         <v>465</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="T31">
+        <v>2848</v>
+      </c>
+      <c r="U31">
+        <v>2033</v>
+      </c>
+      <c r="V31">
+        <v>2730</v>
+      </c>
+      <c r="Z31">
+        <v>14282</v>
+      </c>
+      <c r="AA31">
+        <v>16212</v>
+      </c>
+      <c r="AB31">
+        <v>9226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B32">
+      <c r="K32">
         <v>130</v>
       </c>
-      <c r="C32">
+      <c r="L32">
         <v>80</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>219</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="Q32">
         <v>1072</v>
       </c>
-      <c r="I32">
+      <c r="R32">
         <v>228</v>
       </c>
-      <c r="J32">
+      <c r="S32">
         <v>-550</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="T32">
+        <v>2718</v>
+      </c>
+      <c r="U32">
+        <v>1953</v>
+      </c>
+      <c r="V32">
+        <v>2511</v>
+      </c>
+      <c r="Z32">
+        <v>13210</v>
+      </c>
+      <c r="AA32">
+        <v>15984</v>
+      </c>
+      <c r="AB32">
+        <v>9776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B33">
+      <c r="K33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="L33">
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="M33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
+      <c r="Q33">
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="R33">
         <v>2</v>
       </c>
-      <c r="J33">
+      <c r="S33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="T33">
+        <v>2718</v>
+      </c>
+      <c r="U33">
+        <v>1953</v>
+      </c>
+      <c r="V33">
+        <v>2511</v>
+      </c>
+      <c r="Z33">
+        <v>13208</v>
+      </c>
+      <c r="AA33">
+        <v>15982</v>
+      </c>
+      <c r="AB33">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B34">
+      <c r="K34">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="L34">
         <v>2</v>
       </c>
-      <c r="D34">
+      <c r="M34">
         <v>626</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="Q34">
         <v>-312</v>
       </c>
-      <c r="I34">
+      <c r="R34">
         <v>108</v>
       </c>
-      <c r="J34">
+      <c r="S34">
         <v>240</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="T34">
+        <v>2716</v>
+      </c>
+      <c r="U34">
+        <v>1951</v>
+      </c>
+      <c r="V34">
+        <v>1885</v>
+      </c>
+      <c r="Z34">
+        <v>13520</v>
+      </c>
+      <c r="AA34">
+        <v>15874</v>
+      </c>
+      <c r="AB34">
+        <v>9535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B35">
+      <c r="K35">
         <v>487</v>
       </c>
-      <c r="C35">
+      <c r="L35">
         <v>562</v>
       </c>
-      <c r="D35">
+      <c r="M35">
         <v>973</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="Q35">
         <v>3751</v>
       </c>
-      <c r="I35">
+      <c r="R35">
         <v>3679</v>
       </c>
-      <c r="J35">
+      <c r="S35">
         <v>268</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="T35">
+        <v>2229</v>
+      </c>
+      <c r="U35">
+        <v>1389</v>
+      </c>
+      <c r="V35">
+        <v>912</v>
+      </c>
+      <c r="Z35">
+        <v>9769</v>
+      </c>
+      <c r="AA35">
+        <v>12195</v>
+      </c>
+      <c r="AB35">
+        <v>9267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B36">
+      <c r="K36">
         <v>-232</v>
       </c>
-      <c r="C36">
+      <c r="L36">
         <v>-206</v>
       </c>
-      <c r="D36">
+      <c r="M36">
         <v>336</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="Q36">
         <v>6715</v>
       </c>
-      <c r="I36">
+      <c r="R36">
         <v>7321</v>
       </c>
-      <c r="J36">
+      <c r="S36">
         <v>908</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="T36">
+        <v>2461</v>
+      </c>
+      <c r="U36">
+        <v>1595</v>
+      </c>
+      <c r="V36">
+        <v>576</v>
+      </c>
+      <c r="Z36">
+        <v>3054</v>
+      </c>
+      <c r="AA36">
+        <v>4874</v>
+      </c>
+      <c r="AB36">
+        <v>8359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B37">
+      <c r="K37">
         <v>161</v>
       </c>
-      <c r="C37">
+      <c r="L37">
         <v>115</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>134</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
+      <c r="Q37">
         <v>199</v>
       </c>
-      <c r="I37">
+      <c r="R37">
         <v>219</v>
       </c>
-      <c r="J37">
+      <c r="S37">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="T37">
+        <v>2300</v>
+      </c>
+      <c r="U37">
+        <v>1480</v>
+      </c>
+      <c r="V37">
+        <v>442</v>
+      </c>
+      <c r="Z37">
+        <v>2855</v>
+      </c>
+      <c r="AA37">
+        <v>4655</v>
+      </c>
+      <c r="AB37">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B38">
+      <c r="D38">
+        <v>5000</v>
+      </c>
+      <c r="E38">
+        <v>5000</v>
+      </c>
+      <c r="F38">
+        <v>5000</v>
+      </c>
+      <c r="G38">
+        <v>5000</v>
+      </c>
+      <c r="K38">
         <v>-203</v>
       </c>
-      <c r="C38">
+      <c r="L38">
         <v>-152</v>
       </c>
-      <c r="D38">
+      <c r="M38">
         <v>53</v>
       </c>
-      <c r="E38">
+      <c r="N38">
         <v>397</v>
       </c>
-      <c r="F38">
+      <c r="O38">
         <v>1019</v>
       </c>
-      <c r="G38">
+      <c r="P38">
         <v>1030</v>
       </c>
-      <c r="H38">
+      <c r="Q38">
         <v>-844</v>
       </c>
-      <c r="I38">
+      <c r="R38">
         <v>-1944</v>
       </c>
-      <c r="J38">
+      <c r="S38">
         <v>-3065</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="T38">
+        <v>2503</v>
+      </c>
+      <c r="U38">
+        <v>1632</v>
+      </c>
+      <c r="V38">
+        <v>5389</v>
+      </c>
+      <c r="W38">
+        <v>4603</v>
+      </c>
+      <c r="X38">
+        <v>3981</v>
+      </c>
+      <c r="Y38">
+        <v>3970</v>
+      </c>
+      <c r="Z38">
+        <v>3699</v>
+      </c>
+      <c r="AA38">
+        <v>6599</v>
+      </c>
+      <c r="AB38">
+        <v>11330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B39">
+      <c r="K39">
         <v>395</v>
       </c>
-      <c r="C39">
+      <c r="L39">
         <v>453</v>
       </c>
-      <c r="D39">
+      <c r="M39">
         <v>677</v>
       </c>
-      <c r="E39">
+      <c r="N39">
         <v>2303</v>
       </c>
-      <c r="F39">
+      <c r="O39">
         <v>1502</v>
       </c>
-      <c r="G39">
+      <c r="P39">
         <v>1511</v>
       </c>
-      <c r="H39">
+      <c r="Q39">
         <v>293</v>
       </c>
-      <c r="I39">
+      <c r="R39">
         <v>293</v>
       </c>
-      <c r="J39">
+      <c r="S39">
         <v>1263</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="T39">
+        <v>2108</v>
+      </c>
+      <c r="U39">
+        <v>1179</v>
+      </c>
+      <c r="V39">
+        <v>4712</v>
+      </c>
+      <c r="W39">
+        <v>2300</v>
+      </c>
+      <c r="X39">
+        <v>2479</v>
+      </c>
+      <c r="Y39">
+        <v>2459</v>
+      </c>
+      <c r="Z39">
+        <v>3406</v>
+      </c>
+      <c r="AA39">
+        <v>6306</v>
+      </c>
+      <c r="AB39">
+        <v>10067</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B40">
+      <c r="K40">
         <v>-167</v>
       </c>
-      <c r="C40">
+      <c r="L40">
         <v>-172</v>
       </c>
-      <c r="D40">
+      <c r="M40">
         <v>-77</v>
       </c>
-      <c r="E40">
+      <c r="N40">
         <v>71</v>
       </c>
-      <c r="F40">
+      <c r="O40">
         <v>-24</v>
       </c>
-      <c r="G40">
+      <c r="P40">
         <v>-25</v>
       </c>
-      <c r="H40">
+      <c r="Q40">
         <v>170</v>
       </c>
-      <c r="I40">
+      <c r="R40">
         <v>171</v>
       </c>
-      <c r="J40">
+      <c r="S40">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="T40">
+        <v>2275</v>
+      </c>
+      <c r="U40">
+        <v>1351</v>
+      </c>
+      <c r="V40">
+        <v>4789</v>
+      </c>
+      <c r="W40">
+        <v>2229</v>
+      </c>
+      <c r="X40">
+        <v>2503</v>
+      </c>
+      <c r="Y40">
+        <v>2484</v>
+      </c>
+      <c r="Z40">
+        <v>3236</v>
+      </c>
+      <c r="AA40">
+        <v>6135</v>
+      </c>
+      <c r="AB40">
+        <v>10049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B41">
+      <c r="K41">
         <v>70</v>
       </c>
-      <c r="C41">
+      <c r="L41">
         <v>94</v>
       </c>
-      <c r="D41">
+      <c r="M41">
         <v>373</v>
       </c>
-      <c r="E41">
+      <c r="N41">
         <v>117</v>
       </c>
-      <c r="F41">
+      <c r="O41">
         <v>61</v>
       </c>
-      <c r="G41">
+      <c r="P41">
         <v>51</v>
       </c>
-      <c r="H41">
+      <c r="Q41">
         <v>-1828</v>
       </c>
-      <c r="I41">
+      <c r="R41">
         <v>-949</v>
       </c>
-      <c r="J41">
+      <c r="S41">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="T41">
+        <v>2205</v>
+      </c>
+      <c r="U41">
+        <v>1257</v>
+      </c>
+      <c r="V41">
+        <v>4416</v>
+      </c>
+      <c r="W41">
+        <v>2112</v>
+      </c>
+      <c r="X41">
+        <v>2442</v>
+      </c>
+      <c r="Y41">
+        <v>2433</v>
+      </c>
+      <c r="Z41">
+        <v>5064</v>
+      </c>
+      <c r="AA41">
+        <v>7084</v>
+      </c>
+      <c r="AB41">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42">
+      <c r="K42">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="L42">
         <v>10</v>
       </c>
-      <c r="D42">
+      <c r="M42">
         <v>462</v>
       </c>
-      <c r="E42">
+      <c r="N42">
         <v>47</v>
       </c>
-      <c r="F42">
+      <c r="O42">
         <v>30</v>
       </c>
-      <c r="G42">
+      <c r="P42">
         <v>33</v>
       </c>
-      <c r="H42">
+      <c r="Q42">
         <v>1355</v>
       </c>
-      <c r="I42">
+      <c r="R42">
         <v>1623</v>
       </c>
-      <c r="J42">
+      <c r="S42">
         <v>620</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="T42">
+        <v>2195</v>
+      </c>
+      <c r="U42">
+        <v>1247</v>
+      </c>
+      <c r="V42">
+        <v>3954</v>
+      </c>
+      <c r="W42">
+        <v>2065</v>
+      </c>
+      <c r="X42">
+        <v>2412</v>
+      </c>
+      <c r="Y42">
+        <v>2400</v>
+      </c>
+      <c r="Z42">
+        <v>3709</v>
+      </c>
+      <c r="AA42">
+        <v>5461</v>
+      </c>
+      <c r="AB42">
+        <v>9398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B43">
+        <v>5000</v>
+      </c>
+      <c r="C43">
+        <v>5000</v>
+      </c>
+      <c r="K43">
         <v>752</v>
       </c>
-      <c r="C43">
+      <c r="L43">
         <v>1561</v>
       </c>
-      <c r="D43">
+      <c r="M43">
         <v>994</v>
       </c>
-      <c r="E43">
+      <c r="N43">
         <v>849</v>
       </c>
-      <c r="F43">
+      <c r="O43">
         <v>1584</v>
       </c>
-      <c r="G43">
+      <c r="P43">
         <v>732</v>
       </c>
-      <c r="H43">
+      <c r="Q43">
         <v>-395</v>
       </c>
-      <c r="I43">
+      <c r="R43">
         <v>-650</v>
       </c>
-      <c r="J43">
+      <c r="S43">
         <v>162</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="T43">
+        <v>6443</v>
+      </c>
+      <c r="U43">
+        <v>4686</v>
+      </c>
+      <c r="V43">
+        <v>2960</v>
+      </c>
+      <c r="W43">
+        <v>1216</v>
+      </c>
+      <c r="X43">
+        <v>828</v>
+      </c>
+      <c r="Y43">
+        <v>1668</v>
+      </c>
+      <c r="Z43">
+        <v>4104</v>
+      </c>
+      <c r="AA43">
+        <v>6111</v>
+      </c>
+      <c r="AB43">
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B44">
+      <c r="K44">
         <v>214</v>
       </c>
-      <c r="C44">
+      <c r="L44">
         <v>276</v>
       </c>
-      <c r="D44">
+      <c r="M44">
         <v>1220</v>
       </c>
-      <c r="E44">
+      <c r="N44">
         <v>46</v>
       </c>
-      <c r="F44">
+      <c r="O44">
         <v>173</v>
       </c>
-      <c r="G44">
+      <c r="P44">
         <v>28</v>
       </c>
-      <c r="H44">
+      <c r="Q44">
         <v>-2622</v>
       </c>
-      <c r="I44">
+      <c r="R44">
         <v>-2512</v>
       </c>
-      <c r="J44">
+      <c r="S44">
         <v>156</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="T44">
+        <v>6229</v>
+      </c>
+      <c r="U44">
+        <v>4410</v>
+      </c>
+      <c r="V44">
+        <v>1740</v>
+      </c>
+      <c r="W44">
+        <v>1170</v>
+      </c>
+      <c r="X44">
+        <v>655</v>
+      </c>
+      <c r="Y44">
+        <v>1640</v>
+      </c>
+      <c r="Z44">
+        <v>6726</v>
+      </c>
+      <c r="AA44">
+        <v>8623</v>
+      </c>
+      <c r="AB44">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B45">
+      <c r="E45">
+        <v>3000</v>
+      </c>
+      <c r="F45">
+        <v>3000</v>
+      </c>
+      <c r="K45">
         <v>142</v>
       </c>
-      <c r="C45">
+      <c r="L45">
         <v>174</v>
       </c>
-      <c r="D45">
+      <c r="M45">
         <v>412</v>
       </c>
-      <c r="E45">
+      <c r="N45">
         <v>684</v>
       </c>
-      <c r="F45">
+      <c r="O45">
         <v>901</v>
       </c>
-      <c r="G45">
+      <c r="P45">
         <v>736</v>
       </c>
-      <c r="H45">
+      <c r="Q45">
         <v>-423</v>
       </c>
-      <c r="I45">
+      <c r="R45">
         <v>-78</v>
       </c>
-      <c r="J45">
+      <c r="S45">
         <v>440</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="T45">
+        <v>6087</v>
+      </c>
+      <c r="U45">
+        <v>4236</v>
+      </c>
+      <c r="V45">
+        <v>1328</v>
+      </c>
+      <c r="W45">
+        <v>3486</v>
+      </c>
+      <c r="X45">
+        <v>2754</v>
+      </c>
+      <c r="Y45">
+        <v>904</v>
+      </c>
+      <c r="Z45">
+        <v>7149</v>
+      </c>
+      <c r="AA45">
+        <v>8701</v>
+      </c>
+      <c r="AB45">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B46">
+      <c r="D46">
+        <v>5000</v>
+      </c>
+      <c r="K46">
         <v>17</v>
       </c>
-      <c r="C46">
+      <c r="L46">
         <v>-7</v>
       </c>
-      <c r="D46">
+      <c r="M46">
         <v>2005</v>
       </c>
-      <c r="E46">
+      <c r="N46">
         <v>94</v>
       </c>
-      <c r="F46">
+      <c r="O46">
         <v>-3</v>
       </c>
-      <c r="G46">
+      <c r="P46">
         <v>39</v>
       </c>
-      <c r="H46">
+      <c r="Q46">
         <v>150</v>
       </c>
-      <c r="I46">
+      <c r="R46">
         <v>48</v>
       </c>
-      <c r="J46">
+      <c r="S46">
         <v>645</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="T46">
+        <v>6070</v>
+      </c>
+      <c r="U46">
+        <v>4243</v>
+      </c>
+      <c r="V46">
+        <v>4323</v>
+      </c>
+      <c r="W46">
+        <v>3392</v>
+      </c>
+      <c r="X46">
+        <v>2757</v>
+      </c>
+      <c r="Y46">
+        <v>865</v>
+      </c>
+      <c r="Z46">
+        <v>6999</v>
+      </c>
+      <c r="AA46">
+        <v>8653</v>
+      </c>
+      <c r="AB46">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B47">
+      <c r="K47">
         <v>70</v>
       </c>
-      <c r="C47">
+      <c r="L47">
         <v>77</v>
       </c>
-      <c r="D47">
+      <c r="M47">
         <v>-44</v>
       </c>
-      <c r="E47">
+      <c r="N47">
         <v>44</v>
       </c>
-      <c r="F47">
+      <c r="O47">
         <v>-67</v>
       </c>
-      <c r="G47">
+      <c r="P47">
         <v>-167</v>
       </c>
-      <c r="H47">
+      <c r="Q47">
         <v>-3219</v>
       </c>
-      <c r="I47">
+      <c r="R47">
         <v>-3333</v>
       </c>
-      <c r="J47">
+      <c r="S47">
         <v>-1409</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="T47">
+        <v>6000</v>
+      </c>
+      <c r="U47">
+        <v>4166</v>
+      </c>
+      <c r="V47">
+        <v>4367</v>
+      </c>
+      <c r="W47">
+        <v>3348</v>
+      </c>
+      <c r="X47">
+        <v>2824</v>
+      </c>
+      <c r="Y47">
+        <v>1032</v>
+      </c>
+      <c r="Z47">
+        <v>10218</v>
+      </c>
+      <c r="AA47">
+        <v>11986</v>
+      </c>
+      <c r="AB47">
+        <v>9404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B48">
+      <c r="K48">
         <v>16</v>
       </c>
-      <c r="C48">
+      <c r="L48">
         <v>54</v>
       </c>
-      <c r="D48">
+      <c r="M48">
         <v>873</v>
       </c>
-      <c r="E48">
+      <c r="N48">
         <v>382</v>
       </c>
-      <c r="F48">
+      <c r="O48">
         <v>240</v>
       </c>
-      <c r="G48">
+      <c r="P48">
         <v>160</v>
       </c>
-      <c r="H48">
+      <c r="Q48">
         <v>-1518</v>
       </c>
-      <c r="I48">
+      <c r="R48">
         <v>-2646</v>
       </c>
-      <c r="J48">
+      <c r="S48">
         <v>219</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="T48">
+        <v>5984</v>
+      </c>
+      <c r="U48">
+        <v>4112</v>
+      </c>
+      <c r="V48">
+        <v>3494</v>
+      </c>
+      <c r="W48">
+        <v>2966</v>
+      </c>
+      <c r="X48">
+        <v>2584</v>
+      </c>
+      <c r="Y48">
+        <v>872</v>
+      </c>
+      <c r="Z48">
+        <v>11736</v>
+      </c>
+      <c r="AA48">
+        <v>14632</v>
+      </c>
+      <c r="AB48">
+        <v>9185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B49">
+      <c r="F49">
+        <v>3000</v>
+      </c>
+      <c r="K49">
         <v>30</v>
       </c>
-      <c r="C49">
+      <c r="L49">
         <v>80</v>
       </c>
-      <c r="D49">
+      <c r="M49">
         <v>260</v>
       </c>
-      <c r="E49">
+      <c r="N49">
         <v>367</v>
       </c>
-      <c r="F49">
+      <c r="O49">
         <v>5365</v>
       </c>
-      <c r="G49">
+      <c r="P49">
         <v>82</v>
       </c>
-      <c r="H49">
+      <c r="Q49">
         <v>-2752</v>
       </c>
-      <c r="I49">
+      <c r="R49">
         <v>-2738</v>
       </c>
-      <c r="J49">
+      <c r="S49">
         <v>-115</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="T49">
+        <v>5954</v>
+      </c>
+      <c r="U49">
+        <v>4032</v>
+      </c>
+      <c r="V49">
+        <v>3234</v>
+      </c>
+      <c r="W49">
+        <v>2599</v>
+      </c>
+      <c r="X49">
+        <v>219</v>
+      </c>
+      <c r="Y49">
+        <v>790</v>
+      </c>
+      <c r="Z49">
+        <v>14488</v>
+      </c>
+      <c r="AA49">
+        <v>17370</v>
+      </c>
+      <c r="AB49">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B50">
+      <c r="G50">
+        <v>5000</v>
+      </c>
+      <c r="K50">
         <v>54</v>
       </c>
-      <c r="C50">
+      <c r="L50">
         <v>-18</v>
       </c>
-      <c r="D50">
+      <c r="M50">
         <v>618</v>
       </c>
-      <c r="E50">
+      <c r="N50">
         <v>62</v>
       </c>
-      <c r="F50">
+      <c r="O50">
         <v>-8</v>
       </c>
-      <c r="G50">
+      <c r="P50">
         <v>0</v>
       </c>
-      <c r="H50">
+      <c r="Q50">
         <v>-2954</v>
       </c>
-      <c r="I50">
+      <c r="R50">
         <v>-1034</v>
       </c>
-      <c r="J50">
+      <c r="S50">
         <v>-10</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="T50">
+        <v>5900</v>
+      </c>
+      <c r="U50">
+        <v>4050</v>
+      </c>
+      <c r="V50">
+        <v>2616</v>
+      </c>
+      <c r="W50">
+        <v>2537</v>
+      </c>
+      <c r="X50">
+        <v>227</v>
+      </c>
+      <c r="Y50">
+        <v>5790</v>
+      </c>
+      <c r="Z50">
+        <v>17442</v>
+      </c>
+      <c r="AA50">
+        <v>18404</v>
+      </c>
+      <c r="AB50">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B51">
+      <c r="K51">
         <v>49</v>
       </c>
-      <c r="C51">
+      <c r="L51">
         <v>11</v>
       </c>
-      <c r="D51">
+      <c r="M51">
         <v>14</v>
       </c>
-      <c r="E51">
+      <c r="N51">
         <v>78</v>
       </c>
-      <c r="F51">
+      <c r="O51">
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="P51">
         <v>0</v>
       </c>
-      <c r="H51">
+      <c r="Q51">
         <v>45</v>
       </c>
-      <c r="I51">
+      <c r="R51">
         <v>9</v>
       </c>
-      <c r="J51">
+      <c r="S51">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="T51">
+        <v>5851</v>
+      </c>
+      <c r="U51">
+        <v>4039</v>
+      </c>
+      <c r="V51">
+        <v>2602</v>
+      </c>
+      <c r="W51">
+        <v>2459</v>
+      </c>
+      <c r="X51">
+        <v>227</v>
+      </c>
+      <c r="Y51">
+        <v>5790</v>
+      </c>
+      <c r="Z51">
+        <v>17397</v>
+      </c>
+      <c r="AA51">
+        <v>18395</v>
+      </c>
+      <c r="AB51">
+        <v>9246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B52">
+      <c r="K52">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="L52">
         <v>23</v>
       </c>
-      <c r="D52">
+      <c r="M52">
         <v>273</v>
       </c>
-      <c r="E52">
+      <c r="N52">
         <v>315</v>
       </c>
-      <c r="F52">
+      <c r="O52">
         <v>124</v>
       </c>
-      <c r="G52">
+      <c r="P52">
         <v>100</v>
       </c>
-      <c r="H52">
+      <c r="Q52">
         <v>414</v>
       </c>
-      <c r="I52">
+      <c r="R52">
         <v>112</v>
       </c>
-      <c r="J52">
+      <c r="S52">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="T52">
+        <v>5800</v>
+      </c>
+      <c r="U52">
+        <v>4016</v>
+      </c>
+      <c r="V52">
+        <v>2329</v>
+      </c>
+      <c r="W52">
+        <v>2144</v>
+      </c>
+      <c r="X52">
+        <v>103</v>
+      </c>
+      <c r="Y52">
+        <v>5690</v>
+      </c>
+      <c r="Z52">
+        <v>16983</v>
+      </c>
+      <c r="AA52">
+        <v>18283</v>
+      </c>
+      <c r="AB52">
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B53">
+      <c r="K53">
         <v>-38</v>
       </c>
-      <c r="C53">
+      <c r="L53">
         <v>-3</v>
       </c>
-      <c r="D53">
+      <c r="M53">
         <v>97</v>
       </c>
-      <c r="E53">
+      <c r="N53">
         <v>378</v>
       </c>
-      <c r="F53">
+      <c r="O53">
         <v>156</v>
       </c>
-      <c r="G53">
+      <c r="P53">
         <v>86</v>
       </c>
-      <c r="H53">
+      <c r="Q53">
         <v>336</v>
       </c>
-      <c r="I53">
+      <c r="R53">
         <v>287</v>
       </c>
-      <c r="J53">
+      <c r="S53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="T53">
+        <v>5838</v>
+      </c>
+      <c r="U53">
+        <v>4019</v>
+      </c>
+      <c r="V53">
+        <v>2232</v>
+      </c>
+      <c r="W53">
+        <v>1766</v>
+      </c>
+      <c r="X53">
+        <v>-53</v>
+      </c>
+      <c r="Y53">
+        <v>5604</v>
+      </c>
+      <c r="Z53">
+        <v>16647</v>
+      </c>
+      <c r="AA53">
+        <v>17996</v>
+      </c>
+      <c r="AB53">
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B54">
+      <c r="K54">
         <v>4</v>
       </c>
-      <c r="C54">
+      <c r="L54">
         <v>1</v>
       </c>
-      <c r="D54">
+      <c r="M54">
         <v>4</v>
       </c>
-      <c r="E54">
+      <c r="N54">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="O54">
         <v>2</v>
       </c>
-      <c r="G54">
+      <c r="P54">
         <v>6</v>
       </c>
-      <c r="H54">
+      <c r="Q54">
         <v>71</v>
       </c>
-      <c r="I54">
+      <c r="R54">
         <v>18</v>
       </c>
-      <c r="J54">
+      <c r="S54">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="T54">
+        <v>5834</v>
+      </c>
+      <c r="U54">
+        <v>4018</v>
+      </c>
+      <c r="V54">
+        <v>2228</v>
+      </c>
+      <c r="W54">
+        <v>1766</v>
+      </c>
+      <c r="X54">
+        <v>-55</v>
+      </c>
+      <c r="Y54">
+        <v>5598</v>
+      </c>
+      <c r="Z54">
+        <v>16576</v>
+      </c>
+      <c r="AA54">
+        <v>17978</v>
+      </c>
+      <c r="AB54">
+        <v>9137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B55">
+      <c r="K55">
         <v>14</v>
       </c>
-      <c r="C55">
+      <c r="L55">
         <v>-49</v>
       </c>
-      <c r="D55">
+      <c r="M55">
         <v>132</v>
       </c>
-      <c r="E55">
+      <c r="N55">
         <v>309</v>
       </c>
-      <c r="F55">
+      <c r="O55">
         <v>7</v>
       </c>
-      <c r="G55">
+      <c r="P55">
         <v>-67</v>
       </c>
-      <c r="H55">
+      <c r="Q55">
         <v>100</v>
       </c>
-      <c r="I55">
+      <c r="R55">
         <v>75</v>
       </c>
-      <c r="J55">
+      <c r="S55">
         <v>224</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="T55">
+        <v>5820</v>
+      </c>
+      <c r="U55">
+        <v>4067</v>
+      </c>
+      <c r="V55">
+        <v>2096</v>
+      </c>
+      <c r="W55">
+        <v>1457</v>
+      </c>
+      <c r="X55">
+        <v>-62</v>
+      </c>
+      <c r="Y55">
+        <v>5665</v>
+      </c>
+      <c r="Z55">
+        <v>16476</v>
+      </c>
+      <c r="AA55">
+        <v>17903</v>
+      </c>
+      <c r="AB55">
+        <v>8913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B56">
+      <c r="K56">
         <v>137</v>
       </c>
-      <c r="C56">
+      <c r="L56">
         <v>646</v>
       </c>
-      <c r="D56">
+      <c r="M56">
         <v>511</v>
       </c>
-      <c r="E56">
+      <c r="N56">
         <v>-87</v>
       </c>
-      <c r="F56">
+      <c r="O56">
         <v>-112</v>
       </c>
-      <c r="G56">
+      <c r="P56">
         <v>-185</v>
       </c>
-      <c r="H56">
+      <c r="Q56">
         <v>152</v>
       </c>
-      <c r="I56">
+      <c r="R56">
         <v>92</v>
       </c>
-      <c r="J56">
+      <c r="S56">
         <v>243</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="T56">
+        <v>5683</v>
+      </c>
+      <c r="U56">
+        <v>3421</v>
+      </c>
+      <c r="V56">
+        <v>1585</v>
+      </c>
+      <c r="W56">
+        <v>1544</v>
+      </c>
+      <c r="X56">
+        <v>50</v>
+      </c>
+      <c r="Y56">
+        <v>5850</v>
+      </c>
+      <c r="Z56">
+        <v>16324</v>
+      </c>
+      <c r="AA56">
+        <v>17811</v>
+      </c>
+      <c r="AB56">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B57">
+      <c r="K57">
         <v>-9</v>
       </c>
-      <c r="C57">
+      <c r="L57">
         <v>-36</v>
       </c>
-      <c r="D57">
+      <c r="M57">
         <v>279</v>
       </c>
-      <c r="E57">
+      <c r="N57">
         <v>88</v>
       </c>
-      <c r="F57">
+      <c r="O57">
         <v>-86</v>
       </c>
-      <c r="G57">
+      <c r="P57">
         <v>56</v>
       </c>
-      <c r="H57">
+      <c r="Q57">
         <v>2</v>
       </c>
-      <c r="I57">
+      <c r="R57">
         <v>2</v>
       </c>
-      <c r="J57">
+      <c r="S57">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="T57">
+        <v>5692</v>
+      </c>
+      <c r="U57">
+        <v>3457</v>
+      </c>
+      <c r="V57">
+        <v>1306</v>
+      </c>
+      <c r="W57">
+        <v>1456</v>
+      </c>
+      <c r="X57">
+        <v>136</v>
+      </c>
+      <c r="Y57">
+        <v>5794</v>
+      </c>
+      <c r="Z57">
+        <v>16322</v>
+      </c>
+      <c r="AA57">
+        <v>17809</v>
+      </c>
+      <c r="AB57">
+        <v>8651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B58">
+      <c r="D58">
+        <v>5000</v>
+      </c>
+      <c r="K58">
         <v>594</v>
       </c>
-      <c r="C58">
+      <c r="L58">
         <v>682</v>
       </c>
-      <c r="D58">
+      <c r="M58">
         <v>626</v>
       </c>
-      <c r="E58">
+      <c r="N58">
         <v>9</v>
       </c>
-      <c r="F58">
+      <c r="O58">
         <v>-134</v>
       </c>
-      <c r="G58">
+      <c r="P58">
         <v>-62</v>
       </c>
-      <c r="H58">
+      <c r="Q58">
         <v>-72</v>
       </c>
-      <c r="I58">
+      <c r="R58">
         <v>-144</v>
       </c>
-      <c r="J58">
+      <c r="S58">
         <v>-22</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="T58">
+        <v>5098</v>
+      </c>
+      <c r="U58">
+        <v>2775</v>
+      </c>
+      <c r="V58">
+        <v>5680</v>
+      </c>
+      <c r="W58">
+        <v>1447</v>
+      </c>
+      <c r="X58">
+        <v>270</v>
+      </c>
+      <c r="Y58">
+        <v>5856</v>
+      </c>
+      <c r="Z58">
+        <v>16394</v>
+      </c>
+      <c r="AA58">
+        <v>17953</v>
+      </c>
+      <c r="AB58">
+        <v>8673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B59">
+      <c r="K59">
         <v>3</v>
       </c>
-      <c r="C59">
+      <c r="L59">
         <v>44</v>
       </c>
-      <c r="D59">
+      <c r="M59">
         <v>346</v>
       </c>
-      <c r="E59">
+      <c r="N59">
         <v>33</v>
       </c>
-      <c r="F59">
+      <c r="O59">
         <v>21</v>
       </c>
-      <c r="G59">
+      <c r="P59">
         <v>3</v>
       </c>
-      <c r="H59">
+      <c r="Q59">
         <v>7</v>
       </c>
-      <c r="I59">
+      <c r="R59">
         <v>2</v>
       </c>
-      <c r="J59">
+      <c r="S59">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="T59">
+        <v>5095</v>
+      </c>
+      <c r="U59">
+        <v>2731</v>
+      </c>
+      <c r="V59">
+        <v>5334</v>
+      </c>
+      <c r="W59">
+        <v>1414</v>
+      </c>
+      <c r="X59">
+        <v>249</v>
+      </c>
+      <c r="Y59">
+        <v>5853</v>
+      </c>
+      <c r="Z59">
+        <v>16387</v>
+      </c>
+      <c r="AA59">
+        <v>17951</v>
+      </c>
+      <c r="AB59">
+        <v>8652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B60">
+      <c r="K60">
         <v>47</v>
       </c>
-      <c r="C60">
+      <c r="L60">
         <v>10</v>
       </c>
-      <c r="D60">
+      <c r="M60">
         <v>559</v>
       </c>
-      <c r="E60">
+      <c r="N60">
         <v>96</v>
       </c>
-      <c r="F60">
+      <c r="O60">
         <v>112</v>
       </c>
-      <c r="G60">
+      <c r="P60">
         <v>54</v>
       </c>
-      <c r="H60">
+      <c r="Q60">
         <v>222</v>
       </c>
-      <c r="I60">
+      <c r="R60">
         <v>189</v>
       </c>
-      <c r="J60">
+      <c r="S60">
         <v>861</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="T60">
+        <v>5048</v>
+      </c>
+      <c r="U60">
+        <v>2721</v>
+      </c>
+      <c r="V60">
+        <v>4775</v>
+      </c>
+      <c r="W60">
+        <v>1318</v>
+      </c>
+      <c r="X60">
+        <v>137</v>
+      </c>
+      <c r="Y60">
+        <v>5799</v>
+      </c>
+      <c r="Z60">
+        <v>16165</v>
+      </c>
+      <c r="AA60">
+        <v>17762</v>
+      </c>
+      <c r="AB60">
+        <v>7791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B61">
+      <c r="K61">
         <v>21</v>
       </c>
-      <c r="C61">
+      <c r="L61">
         <v>26</v>
       </c>
-      <c r="D61">
+      <c r="M61">
         <v>174</v>
       </c>
-      <c r="E61">
+      <c r="N61">
         <v>94</v>
       </c>
-      <c r="F61">
+      <c r="O61">
         <v>-506</v>
       </c>
-      <c r="G61">
+      <c r="P61">
         <v>15</v>
       </c>
-      <c r="H61">
+      <c r="Q61">
         <v>885</v>
       </c>
-      <c r="I61">
+      <c r="R61">
         <v>560</v>
       </c>
-      <c r="J61">
+      <c r="S61">
         <v>855</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="T61">
+        <v>5027</v>
+      </c>
+      <c r="U61">
+        <v>2695</v>
+      </c>
+      <c r="V61">
+        <v>4601</v>
+      </c>
+      <c r="W61">
+        <v>1224</v>
+      </c>
+      <c r="X61">
+        <v>643</v>
+      </c>
+      <c r="Y61">
+        <v>5784</v>
+      </c>
+      <c r="Z61">
+        <v>15280</v>
+      </c>
+      <c r="AA61">
+        <v>17202</v>
+      </c>
+      <c r="AB61">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B62">
+      <c r="K62">
         <v>126</v>
       </c>
-      <c r="C62">
+      <c r="L62">
         <v>8</v>
       </c>
-      <c r="D62">
+      <c r="M62">
         <v>114</v>
       </c>
-      <c r="E62">
+      <c r="N62">
         <v>-23</v>
       </c>
-      <c r="F62">
+      <c r="O62">
         <v>-63</v>
       </c>
-      <c r="G62">
+      <c r="P62">
         <v>-19</v>
       </c>
-      <c r="H62">
+      <c r="Q62">
         <v>224</v>
       </c>
-      <c r="I62">
+      <c r="R62">
         <v>27</v>
       </c>
-      <c r="J62">
+      <c r="S62">
         <v>322</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="T62">
+        <v>4901</v>
+      </c>
+      <c r="U62">
+        <v>2687</v>
+      </c>
+      <c r="V62">
+        <v>4487</v>
+      </c>
+      <c r="W62">
+        <v>1247</v>
+      </c>
+      <c r="X62">
+        <v>706</v>
+      </c>
+      <c r="Y62">
+        <v>5803</v>
+      </c>
+      <c r="Z62">
+        <v>15056</v>
+      </c>
+      <c r="AA62">
+        <v>17175</v>
+      </c>
+      <c r="AB62">
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B63">
+      <c r="K63">
         <v>35</v>
       </c>
-      <c r="C63">
+      <c r="L63">
         <v>11</v>
       </c>
-      <c r="D63">
+      <c r="M63">
         <v>251</v>
       </c>
-      <c r="E63">
+      <c r="N63">
         <v>106</v>
       </c>
-      <c r="F63">
+      <c r="O63">
         <v>40</v>
       </c>
-      <c r="G63">
+      <c r="P63">
         <v>4</v>
       </c>
-      <c r="H63">
+      <c r="Q63">
         <v>3</v>
       </c>
-      <c r="I63">
+      <c r="R63">
         <v>1</v>
       </c>
-      <c r="J63">
+      <c r="S63">
         <v>49</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="T63">
+        <v>4866</v>
+      </c>
+      <c r="U63">
+        <v>2676</v>
+      </c>
+      <c r="V63">
+        <v>4236</v>
+      </c>
+      <c r="W63">
+        <v>1141</v>
+      </c>
+      <c r="X63">
+        <v>666</v>
+      </c>
+      <c r="Y63">
+        <v>5799</v>
+      </c>
+      <c r="Z63">
+        <v>15053</v>
+      </c>
+      <c r="AA63">
+        <v>17174</v>
+      </c>
+      <c r="AB63">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B64">
+      <c r="E64">
+        <v>3000</v>
+      </c>
+      <c r="K64">
         <v>-2</v>
       </c>
-      <c r="C64">
+      <c r="L64">
         <v>-25</v>
       </c>
-      <c r="D64">
+      <c r="M64">
         <v>98</v>
       </c>
-      <c r="E64">
+      <c r="N64">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="O64">
         <v>-3</v>
       </c>
-      <c r="G64">
+      <c r="P64">
         <v>-1</v>
       </c>
-      <c r="H64">
+      <c r="Q64">
         <v>-2</v>
       </c>
-      <c r="I64">
+      <c r="R64">
         <v>-331</v>
       </c>
-      <c r="J64">
+      <c r="S64">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="T64">
+        <v>4868</v>
+      </c>
+      <c r="U64">
+        <v>2701</v>
+      </c>
+      <c r="V64">
+        <v>4138</v>
+      </c>
+      <c r="W64">
+        <v>4141</v>
+      </c>
+      <c r="X64">
+        <v>669</v>
+      </c>
+      <c r="Y64">
+        <v>5800</v>
+      </c>
+      <c r="Z64">
+        <v>15055</v>
+      </c>
+      <c r="AA64">
+        <v>17505</v>
+      </c>
+      <c r="AB64">
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B65">
+      <c r="O65">
+        <v>-546</v>
+      </c>
+      <c r="X65">
+        <v>1215</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D4305D-E553-1049-98D2-6FE4FE5DE13E}">
+  <dimension ref="A1:AB65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I47" zoomScale="108" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+      <c r="J8">
+        <v>5000</v>
+      </c>
+      <c r="Q8">
+        <v>4701</v>
+      </c>
+      <c r="R8">
+        <v>4741</v>
+      </c>
+      <c r="S8">
+        <v>3701</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:AB17" si="0">H8-Q8</f>
+        <v>5299</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>5259</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9">
+        <v>10000</v>
+      </c>
+      <c r="I9">
+        <v>10000</v>
+      </c>
+      <c r="J9">
+        <v>5000</v>
+      </c>
+      <c r="Q9">
+        <v>5278</v>
+      </c>
+      <c r="R9">
+        <v>5510</v>
+      </c>
+      <c r="S9">
+        <v>4388</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>4722</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>4490</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10">
+        <v>10000</v>
+      </c>
+      <c r="I10">
+        <v>10000</v>
+      </c>
+      <c r="J10">
+        <v>5000</v>
+      </c>
+      <c r="Q10">
+        <v>6065</v>
+      </c>
+      <c r="R10">
+        <v>6773</v>
+      </c>
+      <c r="S10">
+        <v>4501</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>3935</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>3227</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11">
+        <v>10000</v>
+      </c>
+      <c r="J11">
+        <v>5000</v>
+      </c>
+      <c r="Q11">
+        <v>6166</v>
+      </c>
+      <c r="R11">
+        <v>7073</v>
+      </c>
+      <c r="S11">
+        <v>4618</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>3834</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>2927</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>10000</v>
+      </c>
+      <c r="I12">
+        <v>10000</v>
+      </c>
+      <c r="J12">
+        <v>10000</v>
+      </c>
+      <c r="Q12">
+        <v>6612</v>
+      </c>
+      <c r="R12">
+        <v>7499</v>
+      </c>
+      <c r="S12">
+        <v>4823</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>3388</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>2501</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>20000</v>
+      </c>
+      <c r="I13">
+        <v>20000</v>
+      </c>
+      <c r="J13">
+        <v>10000</v>
+      </c>
+      <c r="Q13">
+        <v>8210</v>
+      </c>
+      <c r="R13">
+        <v>9155</v>
+      </c>
+      <c r="S13">
+        <v>4892</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>11790</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>10845</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
+      <c r="H14">
+        <v>20000</v>
+      </c>
+      <c r="I14">
+        <v>20000</v>
+      </c>
+      <c r="J14">
+        <v>10000</v>
+      </c>
+      <c r="Q14">
+        <v>8437</v>
+      </c>
+      <c r="R14">
+        <v>9311</v>
+      </c>
+      <c r="S14">
+        <v>5041</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>11563</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>10689</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>20000</v>
+      </c>
+      <c r="I15">
+        <v>20000</v>
+      </c>
+      <c r="J15">
+        <v>10000</v>
+      </c>
+      <c r="Q15">
+        <v>9303</v>
+      </c>
+      <c r="R15">
+        <v>10549</v>
+      </c>
+      <c r="S15">
+        <v>5339</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>10697</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>9451</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>20000</v>
+      </c>
+      <c r="I16">
+        <v>20000</v>
+      </c>
+      <c r="J16">
+        <v>10000</v>
+      </c>
+      <c r="Q16">
+        <v>9575</v>
+      </c>
+      <c r="R16">
+        <v>10827</v>
+      </c>
+      <c r="S16">
+        <v>5375</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>10425</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>9173</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>20000</v>
+      </c>
+      <c r="I17">
+        <v>20000</v>
+      </c>
+      <c r="J17">
+        <v>10000</v>
+      </c>
+      <c r="Q17">
+        <v>10707</v>
+      </c>
+      <c r="R17">
+        <v>12186</v>
+      </c>
+      <c r="S17">
+        <v>5529</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>9293</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>7814</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>20000</v>
+      </c>
+      <c r="I18">
+        <v>20000</v>
+      </c>
+      <c r="J18">
+        <v>10000</v>
+      </c>
+      <c r="Q18">
+        <v>11121</v>
+      </c>
+      <c r="R18">
+        <v>12234</v>
+      </c>
+      <c r="S18">
+        <v>5529</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18:Z64" si="1">H18-Q18</f>
+        <v>8879</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18:AA64" si="2">I18-R18</f>
+        <v>7766</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AB64" si="3">J18-S18</f>
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>20000</v>
+      </c>
+      <c r="I19">
+        <v>20000</v>
+      </c>
+      <c r="J19">
+        <v>10000</v>
+      </c>
+      <c r="Q19">
+        <v>15623</v>
+      </c>
+      <c r="R19">
+        <v>16754</v>
+      </c>
+      <c r="S19">
+        <v>6640</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>4377</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="2"/>
+        <v>3246</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="3"/>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>25000</v>
+      </c>
+      <c r="I20">
+        <v>20000</v>
+      </c>
+      <c r="J20">
+        <v>15000</v>
+      </c>
+      <c r="Q20">
+        <v>17638</v>
+      </c>
+      <c r="R20">
+        <v>18160</v>
+      </c>
+      <c r="S20">
+        <v>6774</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="1"/>
+        <v>7362</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="2"/>
+        <v>1840</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>25000</v>
+      </c>
+      <c r="I21">
+        <v>20000</v>
+      </c>
+      <c r="J21">
+        <v>15000</v>
+      </c>
+      <c r="Q21">
+        <v>20211</v>
+      </c>
+      <c r="R21">
+        <v>19873</v>
+      </c>
+      <c r="S21">
+        <v>8374</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>4789</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>35000</v>
+      </c>
+      <c r="I22">
+        <v>35000</v>
+      </c>
+      <c r="J22">
+        <v>15000</v>
+      </c>
+      <c r="Q22">
+        <v>22748</v>
+      </c>
+      <c r="R22">
+        <v>22764</v>
+      </c>
+      <c r="S22">
+        <v>9999</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>12252</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="2"/>
+        <v>12236</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>35000</v>
+      </c>
+      <c r="I23">
+        <v>35000</v>
+      </c>
+      <c r="J23">
+        <v>15000</v>
+      </c>
+      <c r="Q23">
+        <v>24303</v>
+      </c>
+      <c r="R23">
+        <v>24632</v>
+      </c>
+      <c r="S23">
+        <v>10059</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>10697</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="2"/>
+        <v>10368</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>35000</v>
+      </c>
+      <c r="I24">
+        <v>35000</v>
+      </c>
+      <c r="J24">
+        <v>15000</v>
+      </c>
+      <c r="Q24">
+        <v>24429</v>
+      </c>
+      <c r="R24">
+        <v>26888</v>
+      </c>
+      <c r="S24">
+        <v>10060</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="1"/>
+        <v>10571</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="2"/>
+        <v>8112</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>44860</v>
+      </c>
+      <c r="I25">
+        <v>45000</v>
+      </c>
+      <c r="J25">
+        <v>15000</v>
+      </c>
+      <c r="Q25">
+        <v>26097</v>
+      </c>
+      <c r="R25">
+        <v>27771</v>
+      </c>
+      <c r="S25">
+        <v>11065</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="1"/>
+        <v>18763</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="2"/>
+        <v>17229</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>44860</v>
+      </c>
+      <c r="I26">
+        <v>45000</v>
+      </c>
+      <c r="J26">
+        <v>15000</v>
+      </c>
+      <c r="Q26">
+        <v>37245</v>
+      </c>
+      <c r="R26">
+        <v>39792</v>
+      </c>
+      <c r="S26">
+        <v>12765</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>7615</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="2"/>
+        <v>5208</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="3"/>
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>44860</v>
+      </c>
+      <c r="I27">
+        <v>45000</v>
+      </c>
+      <c r="J27">
+        <v>15000</v>
+      </c>
+      <c r="Q27">
+        <v>37245</v>
+      </c>
+      <c r="R27">
+        <v>39792</v>
+      </c>
+      <c r="S27">
+        <v>12765</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="1"/>
+        <v>7615</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="2"/>
+        <v>5208</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="3"/>
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>64860</v>
+      </c>
+      <c r="I28">
+        <v>65000</v>
+      </c>
+      <c r="J28">
+        <v>25000</v>
+      </c>
+      <c r="Q28">
+        <v>49271</v>
+      </c>
+      <c r="R28">
+        <v>51906</v>
+      </c>
+      <c r="S28">
+        <v>15271</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="1"/>
+        <v>15589</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="2"/>
+        <v>13094</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29">
+        <v>5000</v>
+      </c>
+      <c r="H29">
+        <v>64860</v>
+      </c>
+      <c r="I29">
+        <v>65000</v>
+      </c>
+      <c r="J29">
+        <v>25000</v>
+      </c>
+      <c r="K29">
+        <v>1112</v>
+      </c>
+      <c r="L29">
+        <v>1112</v>
+      </c>
+      <c r="M29">
+        <v>1312</v>
+      </c>
+      <c r="Q29">
+        <v>50731</v>
+      </c>
+      <c r="R29">
+        <v>53332</v>
+      </c>
+      <c r="S29">
+        <v>15272</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T64" si="4">B29-K29</f>
+        <v>3888</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U64" si="5">C29-L29</f>
+        <v>3888</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V64" si="6">D29-M29</f>
+        <v>3688</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="1"/>
+        <v>14129</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="2"/>
+        <v>11668</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="3"/>
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>5000</v>
+      </c>
+      <c r="C30">
+        <v>5000</v>
+      </c>
+      <c r="D30">
+        <v>5000</v>
+      </c>
+      <c r="H30">
+        <v>64860</v>
+      </c>
+      <c r="I30">
+        <v>65000</v>
+      </c>
+      <c r="J30">
+        <v>25000</v>
+      </c>
+      <c r="K30">
+        <v>2039</v>
+      </c>
+      <c r="L30">
+        <v>2015</v>
+      </c>
+      <c r="M30">
+        <v>1779</v>
+      </c>
+      <c r="Q30">
+        <v>52274</v>
+      </c>
+      <c r="R30">
+        <v>54862</v>
+      </c>
+      <c r="S30">
+        <v>15309</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="4"/>
+        <v>2961</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>2985</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>3221</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="1"/>
+        <v>12586</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="2"/>
+        <v>10138</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>9691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>5000</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+      <c r="D31">
+        <v>5000</v>
+      </c>
+      <c r="H31">
+        <v>70920</v>
+      </c>
+      <c r="I31">
+        <v>75000</v>
+      </c>
+      <c r="J31">
+        <v>25000</v>
+      </c>
+      <c r="K31">
+        <v>2152</v>
+      </c>
+      <c r="L31">
+        <v>2967</v>
+      </c>
+      <c r="M31">
+        <v>2270</v>
+      </c>
+      <c r="Q31">
+        <v>56638</v>
+      </c>
+      <c r="R31">
+        <v>58788</v>
+      </c>
+      <c r="S31">
+        <v>15774</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="4"/>
+        <v>2848</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>2033</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="6"/>
+        <v>2730</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="1"/>
+        <v>14282</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="2"/>
+        <v>16212</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="3"/>
+        <v>9226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>5000</v>
+      </c>
+      <c r="C32">
+        <v>5000</v>
+      </c>
+      <c r="D32">
+        <v>5000</v>
+      </c>
+      <c r="H32">
+        <v>70920</v>
+      </c>
+      <c r="I32">
+        <v>75000</v>
+      </c>
+      <c r="J32">
+        <v>25000</v>
+      </c>
+      <c r="K32">
+        <v>2282</v>
+      </c>
+      <c r="L32">
+        <v>3047</v>
+      </c>
+      <c r="M32">
+        <v>2489</v>
+      </c>
+      <c r="Q32">
+        <v>57710</v>
+      </c>
+      <c r="R32">
+        <v>59016</v>
+      </c>
+      <c r="S32">
+        <v>15224</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="4"/>
+        <v>2718</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>1953</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="6"/>
+        <v>2511</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="1"/>
+        <v>13210</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="2"/>
+        <v>15984</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="3"/>
+        <v>9776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>5000</v>
+      </c>
+      <c r="C33">
+        <v>5000</v>
+      </c>
+      <c r="D33">
+        <v>5000</v>
+      </c>
+      <c r="H33">
+        <v>70920</v>
+      </c>
+      <c r="I33">
+        <v>75000</v>
+      </c>
+      <c r="J33">
+        <v>25000</v>
+      </c>
+      <c r="K33">
+        <v>2282</v>
+      </c>
+      <c r="L33">
+        <v>3047</v>
+      </c>
+      <c r="M33">
+        <v>2489</v>
+      </c>
+      <c r="Q33">
+        <v>57712</v>
+      </c>
+      <c r="R33">
+        <v>59018</v>
+      </c>
+      <c r="S33">
+        <v>15225</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="4"/>
+        <v>2718</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="5"/>
+        <v>1953</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>2511</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="1"/>
+        <v>13208</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="2"/>
+        <v>15982</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="3"/>
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>5000</v>
+      </c>
+      <c r="C34">
+        <v>5000</v>
+      </c>
+      <c r="D34">
+        <v>5000</v>
+      </c>
+      <c r="H34">
+        <v>70920</v>
+      </c>
+      <c r="I34">
+        <v>75000</v>
+      </c>
+      <c r="J34">
+        <v>25000</v>
+      </c>
+      <c r="K34">
+        <v>2284</v>
+      </c>
+      <c r="L34">
+        <v>3049</v>
+      </c>
+      <c r="M34">
+        <v>3115</v>
+      </c>
+      <c r="Q34">
+        <v>57400</v>
+      </c>
+      <c r="R34">
+        <v>59126</v>
+      </c>
+      <c r="S34">
+        <v>15465</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="4"/>
+        <v>2716</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="5"/>
+        <v>1951</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="6"/>
+        <v>1885</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="1"/>
+        <v>13520</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="2"/>
+        <v>15874</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="3"/>
+        <v>9535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>5000</v>
+      </c>
+      <c r="C35">
+        <v>5000</v>
+      </c>
+      <c r="D35">
+        <v>5000</v>
+      </c>
+      <c r="H35">
+        <v>70920</v>
+      </c>
+      <c r="I35">
+        <v>75000</v>
+      </c>
+      <c r="J35">
+        <v>25000</v>
+      </c>
+      <c r="K35">
+        <v>2771</v>
+      </c>
+      <c r="L35">
+        <v>3611</v>
+      </c>
+      <c r="M35">
+        <v>4088</v>
+      </c>
+      <c r="Q35">
+        <v>61151</v>
+      </c>
+      <c r="R35">
+        <v>62805</v>
+      </c>
+      <c r="S35">
+        <v>15733</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="4"/>
+        <v>2229</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>1389</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="6"/>
+        <v>912</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="1"/>
+        <v>9769</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="2"/>
+        <v>12195</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="3"/>
+        <v>9267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>5000</v>
+      </c>
+      <c r="C36">
+        <v>5000</v>
+      </c>
+      <c r="D36">
+        <v>5000</v>
+      </c>
+      <c r="H36">
+        <v>70920</v>
+      </c>
+      <c r="I36">
+        <v>75000</v>
+      </c>
+      <c r="J36">
+        <v>25000</v>
+      </c>
+      <c r="K36">
+        <v>2539</v>
+      </c>
+      <c r="L36">
+        <v>3405</v>
+      </c>
+      <c r="M36">
+        <v>4424</v>
+      </c>
+      <c r="Q36">
+        <v>67866</v>
+      </c>
+      <c r="R36">
+        <v>70126</v>
+      </c>
+      <c r="S36">
+        <v>16641</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="4"/>
+        <v>2461</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="5"/>
+        <v>1595</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="6"/>
+        <v>576</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="1"/>
+        <v>3054</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="2"/>
+        <v>4874</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="3"/>
+        <v>8359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>5000</v>
+      </c>
+      <c r="D37">
+        <v>5000</v>
+      </c>
+      <c r="H37">
+        <v>70920</v>
+      </c>
+      <c r="I37">
+        <v>75000</v>
+      </c>
+      <c r="J37">
+        <v>25000</v>
+      </c>
+      <c r="K37">
+        <v>2700</v>
+      </c>
+      <c r="L37">
+        <v>3520</v>
+      </c>
+      <c r="M37">
+        <v>4558</v>
+      </c>
+      <c r="Q37">
+        <v>68065</v>
+      </c>
+      <c r="R37">
+        <v>70345</v>
+      </c>
+      <c r="S37">
+        <v>16735</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="4"/>
+        <v>2300</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="5"/>
+        <v>1480</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="6"/>
+        <v>442</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="1"/>
+        <v>2855</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="2"/>
+        <v>4655</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="3"/>
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>5000</v>
+      </c>
+      <c r="C38">
+        <v>5000</v>
+      </c>
+      <c r="D38">
+        <v>10000</v>
+      </c>
+      <c r="E38">
+        <v>5000</v>
+      </c>
+      <c r="F38">
+        <v>5000</v>
+      </c>
+      <c r="G38">
+        <v>5000</v>
+      </c>
+      <c r="H38">
+        <v>70920</v>
+      </c>
+      <c r="I38">
+        <v>75000</v>
+      </c>
+      <c r="J38">
+        <v>25000</v>
+      </c>
+      <c r="K38">
+        <v>2497</v>
+      </c>
+      <c r="L38">
+        <v>3368</v>
+      </c>
+      <c r="M38">
+        <v>4611</v>
+      </c>
+      <c r="N38">
+        <v>397</v>
+      </c>
+      <c r="O38">
+        <v>1019</v>
+      </c>
+      <c r="P38">
+        <v>1030</v>
+      </c>
+      <c r="Q38">
+        <v>67221</v>
+      </c>
+      <c r="R38">
+        <v>68401</v>
+      </c>
+      <c r="S38">
+        <v>13670</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="4"/>
+        <v>2503</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="5"/>
+        <v>1632</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="6"/>
+        <v>5389</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ref="W38:W64" si="7">E38-N38</f>
+        <v>4603</v>
+      </c>
+      <c r="X38">
+        <f t="shared" ref="X38:X65" si="8">F38-O38</f>
+        <v>3981</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ref="Y38:Y64" si="9">G38-P38</f>
+        <v>3970</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="1"/>
+        <v>3699</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="2"/>
+        <v>6599</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="3"/>
+        <v>11330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>5000</v>
+      </c>
+      <c r="C39">
+        <v>5000</v>
+      </c>
+      <c r="D39">
+        <v>10000</v>
+      </c>
+      <c r="E39">
+        <v>5000</v>
+      </c>
+      <c r="F39">
+        <v>5000</v>
+      </c>
+      <c r="G39">
+        <v>5000</v>
+      </c>
+      <c r="H39">
+        <v>70920</v>
+      </c>
+      <c r="I39">
+        <v>75000</v>
+      </c>
+      <c r="J39">
+        <v>25000</v>
+      </c>
+      <c r="K39">
+        <v>2892</v>
+      </c>
+      <c r="L39">
+        <v>3821</v>
+      </c>
+      <c r="M39">
+        <v>5288</v>
+      </c>
+      <c r="N39">
+        <v>2700</v>
+      </c>
+      <c r="O39">
+        <v>2521</v>
+      </c>
+      <c r="P39">
+        <v>2541</v>
+      </c>
+      <c r="Q39">
+        <v>67514</v>
+      </c>
+      <c r="R39">
+        <v>68694</v>
+      </c>
+      <c r="S39">
+        <v>14933</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="4"/>
+        <v>2108</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="5"/>
+        <v>1179</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="6"/>
+        <v>4712</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="7"/>
+        <v>2300</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="8"/>
+        <v>2479</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="9"/>
+        <v>2459</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="1"/>
+        <v>3406</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="2"/>
+        <v>6306</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="3"/>
+        <v>10067</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>5000</v>
+      </c>
+      <c r="C40">
+        <v>5000</v>
+      </c>
+      <c r="D40">
+        <v>10000</v>
+      </c>
+      <c r="E40">
+        <v>5000</v>
+      </c>
+      <c r="F40">
+        <v>5000</v>
+      </c>
+      <c r="G40">
+        <v>5000</v>
+      </c>
+      <c r="H40">
+        <v>70920</v>
+      </c>
+      <c r="I40">
+        <v>75000</v>
+      </c>
+      <c r="J40">
+        <v>25000</v>
+      </c>
+      <c r="K40">
+        <v>2725</v>
+      </c>
+      <c r="L40">
+        <v>3649</v>
+      </c>
+      <c r="M40">
+        <v>5211</v>
+      </c>
+      <c r="N40">
+        <v>2771</v>
+      </c>
+      <c r="O40">
+        <v>2497</v>
+      </c>
+      <c r="P40">
+        <v>2516</v>
+      </c>
+      <c r="Q40">
+        <v>67684</v>
+      </c>
+      <c r="R40">
+        <v>68865</v>
+      </c>
+      <c r="S40">
+        <v>14951</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="4"/>
+        <v>2275</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="5"/>
+        <v>1351</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="6"/>
+        <v>4789</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="7"/>
+        <v>2229</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="8"/>
+        <v>2503</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="9"/>
+        <v>2484</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="1"/>
+        <v>3236</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="2"/>
+        <v>6135</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="3"/>
+        <v>10049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>5000</v>
+      </c>
+      <c r="C41">
+        <v>5000</v>
+      </c>
+      <c r="D41">
+        <v>10000</v>
+      </c>
+      <c r="E41">
+        <v>5000</v>
+      </c>
+      <c r="F41">
+        <v>5000</v>
+      </c>
+      <c r="G41">
+        <v>5000</v>
+      </c>
+      <c r="H41">
+        <v>70920</v>
+      </c>
+      <c r="I41">
+        <v>75000</v>
+      </c>
+      <c r="J41">
+        <v>25000</v>
+      </c>
+      <c r="K41">
+        <v>2795</v>
+      </c>
+      <c r="L41">
+        <v>3743</v>
+      </c>
+      <c r="M41">
+        <v>5584</v>
+      </c>
+      <c r="N41">
+        <v>2888</v>
+      </c>
+      <c r="O41">
+        <v>2558</v>
+      </c>
+      <c r="P41">
+        <v>2567</v>
+      </c>
+      <c r="Q41">
+        <v>65856</v>
+      </c>
+      <c r="R41">
+        <v>67916</v>
+      </c>
+      <c r="S41">
+        <v>14982</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="4"/>
+        <v>2205</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="5"/>
+        <v>1257</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="6"/>
+        <v>4416</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="7"/>
+        <v>2112</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="8"/>
+        <v>2442</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="9"/>
+        <v>2433</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="1"/>
+        <v>5064</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="2"/>
+        <v>7084</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="3"/>
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>5000</v>
+      </c>
+      <c r="C42">
+        <v>5000</v>
+      </c>
+      <c r="D42">
+        <v>10000</v>
+      </c>
+      <c r="E42">
+        <v>5000</v>
+      </c>
+      <c r="F42">
+        <v>5000</v>
+      </c>
+      <c r="G42">
+        <v>5000</v>
+      </c>
+      <c r="H42">
+        <v>70920</v>
+      </c>
+      <c r="I42">
+        <v>75000</v>
+      </c>
+      <c r="J42">
+        <v>25000</v>
+      </c>
+      <c r="K42">
+        <v>2805</v>
+      </c>
+      <c r="L42">
+        <v>3753</v>
+      </c>
+      <c r="M42">
+        <v>6046</v>
+      </c>
+      <c r="N42">
+        <v>2935</v>
+      </c>
+      <c r="O42">
+        <v>2588</v>
+      </c>
+      <c r="P42">
+        <v>2600</v>
+      </c>
+      <c r="Q42">
+        <v>67211</v>
+      </c>
+      <c r="R42">
+        <v>69539</v>
+      </c>
+      <c r="S42">
+        <v>15602</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="4"/>
+        <v>2195</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="5"/>
+        <v>1247</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="6"/>
+        <v>3954</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="7"/>
+        <v>2065</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="8"/>
+        <v>2412</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="9"/>
+        <v>2400</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="1"/>
+        <v>3709</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="2"/>
+        <v>5461</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="3"/>
+        <v>9398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>10000</v>
+      </c>
+      <c r="C43">
+        <v>10000</v>
+      </c>
+      <c r="D43">
+        <v>10000</v>
+      </c>
+      <c r="E43">
+        <v>5000</v>
+      </c>
+      <c r="F43">
+        <v>5000</v>
+      </c>
+      <c r="G43">
+        <v>5000</v>
+      </c>
+      <c r="H43">
+        <v>70920</v>
+      </c>
+      <c r="I43">
+        <v>75000</v>
+      </c>
+      <c r="J43">
+        <v>25000</v>
+      </c>
+      <c r="K43">
+        <v>3557</v>
+      </c>
+      <c r="L43">
+        <v>5314</v>
+      </c>
+      <c r="M43">
+        <v>7040</v>
+      </c>
+      <c r="N43">
+        <v>3784</v>
+      </c>
+      <c r="O43">
+        <v>4172</v>
+      </c>
+      <c r="P43">
+        <v>3332</v>
+      </c>
+      <c r="Q43">
+        <v>66816</v>
+      </c>
+      <c r="R43">
+        <v>68889</v>
+      </c>
+      <c r="S43">
+        <v>15764</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="4"/>
+        <v>6443</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="5"/>
+        <v>4686</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="6"/>
+        <v>2960</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="7"/>
+        <v>1216</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="8"/>
+        <v>828</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="9"/>
+        <v>1668</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="1"/>
+        <v>4104</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="2"/>
+        <v>6111</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="3"/>
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>10000</v>
+      </c>
+      <c r="C44">
+        <v>10000</v>
+      </c>
+      <c r="D44">
+        <v>10000</v>
+      </c>
+      <c r="E44">
+        <v>5000</v>
+      </c>
+      <c r="F44">
+        <v>5000</v>
+      </c>
+      <c r="G44">
+        <v>5000</v>
+      </c>
+      <c r="H44">
+        <v>70920</v>
+      </c>
+      <c r="I44">
+        <v>75000</v>
+      </c>
+      <c r="J44">
+        <v>25000</v>
+      </c>
+      <c r="K44">
+        <v>3771</v>
+      </c>
+      <c r="L44">
+        <v>5590</v>
+      </c>
+      <c r="M44">
+        <v>8260</v>
+      </c>
+      <c r="N44">
+        <v>3830</v>
+      </c>
+      <c r="O44">
+        <v>4345</v>
+      </c>
+      <c r="P44">
+        <v>3360</v>
+      </c>
+      <c r="Q44">
+        <v>64194</v>
+      </c>
+      <c r="R44">
+        <v>66377</v>
+      </c>
+      <c r="S44">
+        <v>15920</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="4"/>
+        <v>6229</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="5"/>
+        <v>4410</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="6"/>
+        <v>1740</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="7"/>
+        <v>1170</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="8"/>
+        <v>655</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="9"/>
+        <v>1640</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="1"/>
+        <v>6726</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="2"/>
+        <v>8623</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="3"/>
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>10000</v>
+      </c>
+      <c r="C45">
+        <v>10000</v>
+      </c>
+      <c r="D45">
+        <v>10000</v>
+      </c>
+      <c r="E45">
+        <v>8000</v>
+      </c>
+      <c r="F45">
+        <v>8000</v>
+      </c>
+      <c r="G45">
+        <v>5000</v>
+      </c>
+      <c r="H45">
+        <v>70920</v>
+      </c>
+      <c r="I45">
+        <v>75000</v>
+      </c>
+      <c r="J45">
+        <v>25000</v>
+      </c>
+      <c r="K45">
+        <v>3913</v>
+      </c>
+      <c r="L45">
+        <v>5764</v>
+      </c>
+      <c r="M45">
+        <v>8672</v>
+      </c>
+      <c r="N45">
+        <v>4514</v>
+      </c>
+      <c r="O45">
+        <v>5246</v>
+      </c>
+      <c r="P45">
+        <v>4096</v>
+      </c>
+      <c r="Q45">
+        <v>63771</v>
+      </c>
+      <c r="R45">
+        <v>66299</v>
+      </c>
+      <c r="S45">
+        <v>16360</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="4"/>
+        <v>6087</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="5"/>
+        <v>4236</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="6"/>
+        <v>1328</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="7"/>
+        <v>3486</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="8"/>
+        <v>2754</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="9"/>
+        <v>904</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="1"/>
+        <v>7149</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="2"/>
+        <v>8701</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="3"/>
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>10000</v>
+      </c>
+      <c r="C46">
+        <v>10000</v>
+      </c>
+      <c r="D46">
+        <v>15000</v>
+      </c>
+      <c r="E46">
+        <v>8000</v>
+      </c>
+      <c r="F46">
+        <v>8000</v>
+      </c>
+      <c r="G46">
+        <v>5000</v>
+      </c>
+      <c r="H46">
+        <v>70920</v>
+      </c>
+      <c r="I46">
+        <v>75000</v>
+      </c>
+      <c r="J46">
+        <v>25000</v>
+      </c>
+      <c r="K46">
+        <v>3930</v>
+      </c>
+      <c r="L46">
+        <v>5757</v>
+      </c>
+      <c r="M46">
+        <v>10677</v>
+      </c>
+      <c r="N46">
+        <v>4608</v>
+      </c>
+      <c r="O46">
+        <v>5243</v>
+      </c>
+      <c r="P46">
+        <v>4135</v>
+      </c>
+      <c r="Q46">
+        <v>63921</v>
+      </c>
+      <c r="R46">
+        <v>66347</v>
+      </c>
+      <c r="S46">
+        <v>17005</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="4"/>
+        <v>6070</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="5"/>
+        <v>4243</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="6"/>
+        <v>4323</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="7"/>
+        <v>3392</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="8"/>
+        <v>2757</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="9"/>
+        <v>865</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="1"/>
+        <v>6999</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="2"/>
+        <v>8653</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="3"/>
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>10000</v>
+      </c>
+      <c r="C47">
+        <v>10000</v>
+      </c>
+      <c r="D47">
+        <v>15000</v>
+      </c>
+      <c r="E47">
+        <v>8000</v>
+      </c>
+      <c r="F47">
+        <v>8000</v>
+      </c>
+      <c r="G47">
+        <v>5000</v>
+      </c>
+      <c r="H47">
+        <v>70920</v>
+      </c>
+      <c r="I47">
+        <v>75000</v>
+      </c>
+      <c r="J47">
+        <v>25000</v>
+      </c>
+      <c r="K47">
+        <v>4000</v>
+      </c>
+      <c r="L47">
+        <v>5834</v>
+      </c>
+      <c r="M47">
+        <v>10633</v>
+      </c>
+      <c r="N47">
+        <v>4652</v>
+      </c>
+      <c r="O47">
+        <v>5176</v>
+      </c>
+      <c r="P47">
+        <v>3968</v>
+      </c>
+      <c r="Q47">
+        <v>60702</v>
+      </c>
+      <c r="R47">
+        <v>63014</v>
+      </c>
+      <c r="S47">
+        <v>15596</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="5"/>
+        <v>4166</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="6"/>
+        <v>4367</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="7"/>
+        <v>3348</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="8"/>
+        <v>2824</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="9"/>
+        <v>1032</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="1"/>
+        <v>10218</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="2"/>
+        <v>11986</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="3"/>
+        <v>9404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <v>10000</v>
+      </c>
+      <c r="C48">
+        <v>10000</v>
+      </c>
+      <c r="D48">
+        <v>15000</v>
+      </c>
+      <c r="E48">
+        <v>8000</v>
+      </c>
+      <c r="F48">
+        <v>8000</v>
+      </c>
+      <c r="G48">
+        <v>5000</v>
+      </c>
+      <c r="H48">
+        <v>70920</v>
+      </c>
+      <c r="I48">
+        <v>75000</v>
+      </c>
+      <c r="J48">
+        <v>25000</v>
+      </c>
+      <c r="K48">
+        <v>4016</v>
+      </c>
+      <c r="L48">
+        <v>5888</v>
+      </c>
+      <c r="M48">
+        <v>11506</v>
+      </c>
+      <c r="N48">
+        <v>5034</v>
+      </c>
+      <c r="O48">
+        <v>5416</v>
+      </c>
+      <c r="P48">
+        <v>4128</v>
+      </c>
+      <c r="Q48">
+        <v>59184</v>
+      </c>
+      <c r="R48">
+        <v>60368</v>
+      </c>
+      <c r="S48">
+        <v>15815</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="4"/>
+        <v>5984</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="5"/>
+        <v>4112</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="6"/>
+        <v>3494</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="7"/>
+        <v>2966</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="8"/>
+        <v>2584</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="9"/>
+        <v>872</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="1"/>
+        <v>11736</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="2"/>
+        <v>14632</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="3"/>
+        <v>9185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>10000</v>
+      </c>
+      <c r="C49">
+        <v>10000</v>
+      </c>
+      <c r="D49">
+        <v>15000</v>
+      </c>
+      <c r="E49">
+        <v>8000</v>
+      </c>
+      <c r="F49">
+        <v>11000</v>
+      </c>
+      <c r="G49">
+        <v>5000</v>
+      </c>
+      <c r="H49">
+        <v>70920</v>
+      </c>
+      <c r="I49">
+        <v>75000</v>
+      </c>
+      <c r="J49">
+        <v>25000</v>
+      </c>
+      <c r="K49">
+        <v>4046</v>
+      </c>
+      <c r="L49">
+        <v>5968</v>
+      </c>
+      <c r="M49">
+        <v>11766</v>
+      </c>
+      <c r="N49">
+        <v>5401</v>
+      </c>
+      <c r="O49">
+        <v>10781</v>
+      </c>
+      <c r="P49">
+        <v>4210</v>
+      </c>
+      <c r="Q49">
+        <v>56432</v>
+      </c>
+      <c r="R49">
+        <v>57630</v>
+      </c>
+      <c r="S49">
+        <v>15700</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="4"/>
+        <v>5954</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="5"/>
+        <v>4032</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="6"/>
+        <v>3234</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="7"/>
+        <v>2599</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="8"/>
+        <v>219</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="9"/>
+        <v>790</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="1"/>
+        <v>14488</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="2"/>
+        <v>17370</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="3"/>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50">
+        <v>10000</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>15000</v>
+      </c>
+      <c r="E50">
+        <v>8000</v>
+      </c>
+      <c r="F50">
+        <v>11000</v>
+      </c>
+      <c r="G50">
+        <v>10000</v>
+      </c>
+      <c r="H50">
+        <v>70920</v>
+      </c>
+      <c r="I50">
+        <v>75000</v>
+      </c>
+      <c r="J50">
+        <v>25000</v>
+      </c>
+      <c r="K50">
+        <v>4100</v>
+      </c>
+      <c r="L50">
+        <v>5950</v>
+      </c>
+      <c r="M50">
+        <v>12384</v>
+      </c>
+      <c r="N50">
+        <v>5463</v>
+      </c>
+      <c r="O50">
+        <v>10773</v>
+      </c>
+      <c r="P50">
+        <v>4210</v>
+      </c>
+      <c r="Q50">
+        <v>53478</v>
+      </c>
+      <c r="R50">
+        <v>56596</v>
+      </c>
+      <c r="S50">
+        <v>15690</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="4"/>
+        <v>5900</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="5"/>
+        <v>4050</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="6"/>
+        <v>2616</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="7"/>
+        <v>2537</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="9"/>
+        <v>5790</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="1"/>
+        <v>17442</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="2"/>
+        <v>18404</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="3"/>
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51">
+        <v>10000</v>
+      </c>
+      <c r="C51">
+        <v>10000</v>
+      </c>
+      <c r="D51">
+        <v>15000</v>
+      </c>
+      <c r="E51">
+        <v>8000</v>
+      </c>
+      <c r="F51">
+        <v>11000</v>
+      </c>
+      <c r="G51">
+        <v>10000</v>
+      </c>
+      <c r="H51">
+        <v>70920</v>
+      </c>
+      <c r="I51">
+        <v>75000</v>
+      </c>
+      <c r="J51">
+        <v>25000</v>
+      </c>
+      <c r="K51">
+        <v>4149</v>
+      </c>
+      <c r="L51">
+        <v>5961</v>
+      </c>
+      <c r="M51">
+        <v>12398</v>
+      </c>
+      <c r="N51">
+        <v>5541</v>
+      </c>
+      <c r="O51">
+        <v>10773</v>
+      </c>
+      <c r="P51">
+        <v>4210</v>
+      </c>
+      <c r="Q51">
+        <v>53523</v>
+      </c>
+      <c r="R51">
+        <v>56605</v>
+      </c>
+      <c r="S51">
+        <v>15754</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="4"/>
+        <v>5851</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="5"/>
+        <v>4039</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="6"/>
+        <v>2602</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="7"/>
+        <v>2459</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="9"/>
+        <v>5790</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="1"/>
+        <v>17397</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="2"/>
+        <v>18395</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="3"/>
+        <v>9246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52">
+        <v>10000</v>
+      </c>
+      <c r="C52">
+        <v>10000</v>
+      </c>
+      <c r="D52">
+        <v>15000</v>
+      </c>
+      <c r="E52">
+        <v>8000</v>
+      </c>
+      <c r="F52">
+        <v>11000</v>
+      </c>
+      <c r="G52">
+        <v>10000</v>
+      </c>
+      <c r="H52">
+        <v>70920</v>
+      </c>
+      <c r="I52">
+        <v>75000</v>
+      </c>
+      <c r="J52">
+        <v>25000</v>
+      </c>
+      <c r="K52">
+        <v>4200</v>
+      </c>
+      <c r="L52">
+        <v>5984</v>
+      </c>
+      <c r="M52">
+        <v>12671</v>
+      </c>
+      <c r="N52">
+        <v>5856</v>
+      </c>
+      <c r="O52">
+        <v>10897</v>
+      </c>
+      <c r="P52">
+        <v>4310</v>
+      </c>
+      <c r="Q52">
+        <v>53937</v>
+      </c>
+      <c r="R52">
+        <v>56717</v>
+      </c>
+      <c r="S52">
+        <v>15830</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="4"/>
+        <v>5800</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="5"/>
+        <v>4016</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="6"/>
+        <v>2329</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="7"/>
+        <v>2144</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="9"/>
+        <v>5690</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="1"/>
+        <v>16983</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="2"/>
+        <v>18283</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="3"/>
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53">
+        <v>10000</v>
+      </c>
+      <c r="C53">
+        <v>10000</v>
+      </c>
+      <c r="D53">
+        <v>15000</v>
+      </c>
+      <c r="E53">
+        <v>8000</v>
+      </c>
+      <c r="F53">
+        <v>11000</v>
+      </c>
+      <c r="G53">
+        <v>10000</v>
+      </c>
+      <c r="H53">
+        <v>70920</v>
+      </c>
+      <c r="I53">
+        <v>75000</v>
+      </c>
+      <c r="J53">
+        <v>25000</v>
+      </c>
+      <c r="K53">
+        <v>4162</v>
+      </c>
+      <c r="L53">
+        <v>5981</v>
+      </c>
+      <c r="M53">
+        <v>12768</v>
+      </c>
+      <c r="N53">
+        <v>6234</v>
+      </c>
+      <c r="O53">
+        <v>11053</v>
+      </c>
+      <c r="P53">
+        <v>4396</v>
+      </c>
+      <c r="Q53">
+        <v>54273</v>
+      </c>
+      <c r="R53">
+        <v>57004</v>
+      </c>
+      <c r="S53">
+        <v>15839</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="4"/>
+        <v>5838</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="5"/>
+        <v>4019</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="6"/>
+        <v>2232</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="7"/>
+        <v>1766</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="8"/>
+        <v>-53</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="9"/>
+        <v>5604</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="1"/>
+        <v>16647</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="2"/>
+        <v>17996</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="3"/>
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54">
+        <v>10000</v>
+      </c>
+      <c r="C54">
+        <v>10000</v>
+      </c>
+      <c r="D54">
+        <v>15000</v>
+      </c>
+      <c r="E54">
+        <v>8000</v>
+      </c>
+      <c r="F54">
+        <v>11000</v>
+      </c>
+      <c r="G54">
+        <v>10000</v>
+      </c>
+      <c r="H54">
+        <v>70920</v>
+      </c>
+      <c r="I54">
+        <v>75000</v>
+      </c>
+      <c r="J54">
+        <v>25000</v>
+      </c>
+      <c r="K54">
+        <v>4166</v>
+      </c>
+      <c r="L54">
+        <v>5982</v>
+      </c>
+      <c r="M54">
+        <v>12772</v>
+      </c>
+      <c r="N54">
+        <v>6234</v>
+      </c>
+      <c r="O54">
+        <v>11055</v>
+      </c>
+      <c r="P54">
+        <v>4402</v>
+      </c>
+      <c r="Q54">
+        <v>54344</v>
+      </c>
+      <c r="R54">
+        <v>57022</v>
+      </c>
+      <c r="S54">
+        <v>15863</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="4"/>
+        <v>5834</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="5"/>
+        <v>4018</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="6"/>
+        <v>2228</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="7"/>
+        <v>1766</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="8"/>
+        <v>-55</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="9"/>
+        <v>5598</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="1"/>
+        <v>16576</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="2"/>
+        <v>17978</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="3"/>
+        <v>9137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>10000</v>
+      </c>
+      <c r="C55">
+        <v>10000</v>
+      </c>
+      <c r="D55">
+        <v>15000</v>
+      </c>
+      <c r="E55">
+        <v>8000</v>
+      </c>
+      <c r="F55">
+        <v>11000</v>
+      </c>
+      <c r="G55">
+        <v>10000</v>
+      </c>
+      <c r="H55">
+        <v>70920</v>
+      </c>
+      <c r="I55">
+        <v>75000</v>
+      </c>
+      <c r="J55">
+        <v>25000</v>
+      </c>
+      <c r="K55">
+        <v>4180</v>
+      </c>
+      <c r="L55">
+        <v>5933</v>
+      </c>
+      <c r="M55">
+        <v>12904</v>
+      </c>
+      <c r="N55">
+        <v>6543</v>
+      </c>
+      <c r="O55">
+        <v>11062</v>
+      </c>
+      <c r="P55">
+        <v>4335</v>
+      </c>
+      <c r="Q55">
+        <v>54444</v>
+      </c>
+      <c r="R55">
+        <v>57097</v>
+      </c>
+      <c r="S55">
+        <v>16087</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="4"/>
+        <v>5820</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="5"/>
+        <v>4067</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="6"/>
+        <v>2096</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="7"/>
+        <v>1457</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="8"/>
+        <v>-62</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="9"/>
+        <v>5665</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="1"/>
+        <v>16476</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="2"/>
+        <v>17903</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="3"/>
+        <v>8913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>10000</v>
+      </c>
+      <c r="C56">
+        <v>10000</v>
+      </c>
+      <c r="D56">
+        <v>15000</v>
+      </c>
+      <c r="E56">
+        <v>8000</v>
+      </c>
+      <c r="F56">
+        <v>11000</v>
+      </c>
+      <c r="G56">
+        <v>10000</v>
+      </c>
+      <c r="H56">
+        <v>70920</v>
+      </c>
+      <c r="I56">
+        <v>75000</v>
+      </c>
+      <c r="J56">
+        <v>25000</v>
+      </c>
+      <c r="K56">
+        <v>4317</v>
+      </c>
+      <c r="L56">
+        <v>6579</v>
+      </c>
+      <c r="M56">
+        <v>13415</v>
+      </c>
+      <c r="N56">
+        <v>6456</v>
+      </c>
+      <c r="O56">
+        <v>10950</v>
+      </c>
+      <c r="P56">
+        <v>4150</v>
+      </c>
+      <c r="Q56">
+        <v>54596</v>
+      </c>
+      <c r="R56">
+        <v>57189</v>
+      </c>
+      <c r="S56">
+        <v>16330</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="4"/>
+        <v>5683</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="5"/>
+        <v>3421</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="6"/>
+        <v>1585</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="7"/>
+        <v>1544</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="9"/>
+        <v>5850</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="1"/>
+        <v>16324</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="2"/>
+        <v>17811</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="3"/>
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>10000</v>
+      </c>
+      <c r="C57">
+        <v>10000</v>
+      </c>
+      <c r="D57">
+        <v>15000</v>
+      </c>
+      <c r="E57">
+        <v>8000</v>
+      </c>
+      <c r="F57">
+        <v>11000</v>
+      </c>
+      <c r="G57">
+        <v>10000</v>
+      </c>
+      <c r="H57">
+        <v>70920</v>
+      </c>
+      <c r="I57">
+        <v>75000</v>
+      </c>
+      <c r="J57">
+        <v>25000</v>
+      </c>
+      <c r="K57">
+        <v>4308</v>
+      </c>
+      <c r="L57">
+        <v>6543</v>
+      </c>
+      <c r="M57">
+        <v>13694</v>
+      </c>
+      <c r="N57">
+        <v>6544</v>
+      </c>
+      <c r="O57">
+        <v>10864</v>
+      </c>
+      <c r="P57">
+        <v>4206</v>
+      </c>
+      <c r="Q57">
+        <v>54598</v>
+      </c>
+      <c r="R57">
+        <v>57191</v>
+      </c>
+      <c r="S57">
+        <v>16349</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="4"/>
+        <v>5692</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="5"/>
+        <v>3457</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="6"/>
+        <v>1306</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="7"/>
+        <v>1456</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="8"/>
+        <v>136</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="9"/>
+        <v>5794</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="1"/>
+        <v>16322</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="2"/>
+        <v>17809</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="3"/>
+        <v>8651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>10000</v>
+      </c>
+      <c r="C58">
+        <v>10000</v>
+      </c>
+      <c r="D58">
+        <v>20000</v>
+      </c>
+      <c r="E58">
+        <v>8000</v>
+      </c>
+      <c r="F58">
+        <v>11000</v>
+      </c>
+      <c r="G58">
+        <v>10000</v>
+      </c>
+      <c r="H58">
+        <v>70920</v>
+      </c>
+      <c r="I58">
+        <v>75000</v>
+      </c>
+      <c r="J58">
+        <v>25000</v>
+      </c>
+      <c r="K58">
+        <v>4902</v>
+      </c>
+      <c r="L58">
+        <v>7225</v>
+      </c>
+      <c r="M58">
+        <v>14320</v>
+      </c>
+      <c r="N58">
+        <v>6553</v>
+      </c>
+      <c r="O58">
+        <v>10730</v>
+      </c>
+      <c r="P58">
+        <v>4144</v>
+      </c>
+      <c r="Q58">
+        <v>54526</v>
+      </c>
+      <c r="R58">
+        <v>57047</v>
+      </c>
+      <c r="S58">
+        <v>16327</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="4"/>
+        <v>5098</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="5"/>
+        <v>2775</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="6"/>
+        <v>5680</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="7"/>
+        <v>1447</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="9"/>
+        <v>5856</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="1"/>
+        <v>16394</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="2"/>
+        <v>17953</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="3"/>
+        <v>8673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>10000</v>
+      </c>
+      <c r="C59">
+        <v>10000</v>
+      </c>
+      <c r="D59">
+        <v>20000</v>
+      </c>
+      <c r="E59">
+        <v>8000</v>
+      </c>
+      <c r="F59">
+        <v>11000</v>
+      </c>
+      <c r="G59">
+        <v>10000</v>
+      </c>
+      <c r="H59">
+        <v>70920</v>
+      </c>
+      <c r="I59">
+        <v>75000</v>
+      </c>
+      <c r="J59">
+        <v>25000</v>
+      </c>
+      <c r="K59">
+        <v>4905</v>
+      </c>
+      <c r="L59">
+        <v>7269</v>
+      </c>
+      <c r="M59">
+        <v>14666</v>
+      </c>
+      <c r="N59">
+        <v>6586</v>
+      </c>
+      <c r="O59">
+        <v>10751</v>
+      </c>
+      <c r="P59">
+        <v>4147</v>
+      </c>
+      <c r="Q59">
+        <v>54533</v>
+      </c>
+      <c r="R59">
+        <v>57049</v>
+      </c>
+      <c r="S59">
+        <v>16348</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="4"/>
+        <v>5095</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="5"/>
+        <v>2731</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="6"/>
+        <v>5334</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="7"/>
+        <v>1414</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="9"/>
+        <v>5853</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="1"/>
+        <v>16387</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="2"/>
+        <v>17951</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="3"/>
+        <v>8652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60">
+        <v>10000</v>
+      </c>
+      <c r="C60">
+        <v>10000</v>
+      </c>
+      <c r="D60">
+        <v>20000</v>
+      </c>
+      <c r="E60">
+        <v>8000</v>
+      </c>
+      <c r="F60">
+        <v>11000</v>
+      </c>
+      <c r="G60">
+        <v>10000</v>
+      </c>
+      <c r="H60">
+        <v>70920</v>
+      </c>
+      <c r="I60">
+        <v>75000</v>
+      </c>
+      <c r="J60">
+        <v>25000</v>
+      </c>
+      <c r="K60">
+        <v>4952</v>
+      </c>
+      <c r="L60">
+        <v>7279</v>
+      </c>
+      <c r="M60">
+        <v>15225</v>
+      </c>
+      <c r="N60">
+        <v>6682</v>
+      </c>
+      <c r="O60">
+        <v>10863</v>
+      </c>
+      <c r="P60">
+        <v>4201</v>
+      </c>
+      <c r="Q60">
+        <v>54755</v>
+      </c>
+      <c r="R60">
+        <v>57238</v>
+      </c>
+      <c r="S60">
+        <v>17209</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="4"/>
+        <v>5048</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="5"/>
+        <v>2721</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="6"/>
+        <v>4775</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="7"/>
+        <v>1318</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="9"/>
+        <v>5799</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="1"/>
+        <v>16165</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="2"/>
+        <v>17762</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="3"/>
+        <v>7791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61">
+        <v>10000</v>
+      </c>
+      <c r="C61">
+        <v>10000</v>
+      </c>
+      <c r="D61">
+        <v>20000</v>
+      </c>
+      <c r="E61">
+        <v>8000</v>
+      </c>
+      <c r="F61">
+        <v>11000</v>
+      </c>
+      <c r="G61">
+        <v>10000</v>
+      </c>
+      <c r="H61">
+        <v>70920</v>
+      </c>
+      <c r="I61">
+        <v>75000</v>
+      </c>
+      <c r="J61">
+        <v>25000</v>
+      </c>
+      <c r="K61">
+        <v>4973</v>
+      </c>
+      <c r="L61">
+        <v>7305</v>
+      </c>
+      <c r="M61">
+        <v>15399</v>
+      </c>
+      <c r="N61">
+        <v>6776</v>
+      </c>
+      <c r="O61">
+        <v>10357</v>
+      </c>
+      <c r="P61">
+        <v>4216</v>
+      </c>
+      <c r="Q61">
+        <v>55640</v>
+      </c>
+      <c r="R61">
+        <v>57798</v>
+      </c>
+      <c r="S61">
+        <v>18064</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="4"/>
+        <v>5027</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="5"/>
+        <v>2695</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="6"/>
+        <v>4601</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="7"/>
+        <v>1224</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="8"/>
+        <v>643</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="9"/>
+        <v>5784</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="1"/>
+        <v>15280</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="2"/>
+        <v>17202</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="3"/>
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <v>10000</v>
+      </c>
+      <c r="C62">
+        <v>10000</v>
+      </c>
+      <c r="D62">
+        <v>20000</v>
+      </c>
+      <c r="E62">
+        <v>8000</v>
+      </c>
+      <c r="F62">
+        <v>11000</v>
+      </c>
+      <c r="G62">
+        <v>10000</v>
+      </c>
+      <c r="H62">
+        <v>70920</v>
+      </c>
+      <c r="I62">
+        <v>75000</v>
+      </c>
+      <c r="J62">
+        <v>25000</v>
+      </c>
+      <c r="K62">
+        <v>5099</v>
+      </c>
+      <c r="L62">
+        <v>7313</v>
+      </c>
+      <c r="M62">
+        <v>15513</v>
+      </c>
+      <c r="N62">
+        <v>6753</v>
+      </c>
+      <c r="O62">
+        <v>10294</v>
+      </c>
+      <c r="P62">
+        <v>4197</v>
+      </c>
+      <c r="Q62">
+        <v>55864</v>
+      </c>
+      <c r="R62">
+        <v>57825</v>
+      </c>
+      <c r="S62">
+        <v>18386</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="4"/>
+        <v>4901</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="5"/>
+        <v>2687</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="6"/>
+        <v>4487</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="7"/>
+        <v>1247</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="8"/>
+        <v>706</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="9"/>
+        <v>5803</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="1"/>
+        <v>15056</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="2"/>
+        <v>17175</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="3"/>
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>10000</v>
+      </c>
+      <c r="C63">
+        <v>10000</v>
+      </c>
+      <c r="D63">
+        <v>20000</v>
+      </c>
+      <c r="E63">
+        <v>8000</v>
+      </c>
+      <c r="F63">
+        <v>11000</v>
+      </c>
+      <c r="G63">
+        <v>10000</v>
+      </c>
+      <c r="H63">
+        <v>70920</v>
+      </c>
+      <c r="I63">
+        <v>75000</v>
+      </c>
+      <c r="J63">
+        <v>25000</v>
+      </c>
+      <c r="K63">
+        <v>5134</v>
+      </c>
+      <c r="L63">
+        <v>7324</v>
+      </c>
+      <c r="M63">
+        <v>15764</v>
+      </c>
+      <c r="N63">
+        <v>6859</v>
+      </c>
+      <c r="O63">
+        <v>10334</v>
+      </c>
+      <c r="P63">
+        <v>4201</v>
+      </c>
+      <c r="Q63">
+        <v>55867</v>
+      </c>
+      <c r="R63">
+        <v>57826</v>
+      </c>
+      <c r="S63">
+        <v>18435</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="4"/>
+        <v>4866</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="5"/>
+        <v>2676</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="6"/>
+        <v>4236</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="7"/>
+        <v>1141</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="8"/>
+        <v>666</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="9"/>
+        <v>5799</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="1"/>
+        <v>15053</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="2"/>
+        <v>17174</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="3"/>
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64">
+        <v>10000</v>
+      </c>
+      <c r="D64">
+        <v>20000</v>
+      </c>
+      <c r="E64">
+        <v>11000</v>
+      </c>
+      <c r="F64">
+        <v>11000</v>
+      </c>
+      <c r="G64">
+        <v>10000</v>
+      </c>
+      <c r="H64">
+        <v>70920</v>
+      </c>
+      <c r="I64">
+        <v>75000</v>
+      </c>
+      <c r="J64">
+        <v>25000</v>
+      </c>
+      <c r="K64">
+        <v>5132</v>
+      </c>
+      <c r="L64">
+        <v>7299</v>
+      </c>
+      <c r="M64">
+        <v>15862</v>
+      </c>
+      <c r="N64">
+        <v>6859</v>
+      </c>
+      <c r="O64">
+        <v>10331</v>
+      </c>
+      <c r="P64">
+        <v>4200</v>
+      </c>
+      <c r="Q64">
+        <v>55865</v>
+      </c>
+      <c r="R64">
+        <v>57495</v>
+      </c>
+      <c r="S64">
+        <v>18453</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="4"/>
+        <v>4868</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="5"/>
+        <v>2701</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="6"/>
+        <v>4138</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="7"/>
+        <v>4141</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="8"/>
+        <v>669</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="9"/>
+        <v>5800</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="1"/>
+        <v>15055</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="2"/>
+        <v>17505</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="3"/>
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F65">
-        <v>-546</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
+        <v>11000</v>
+      </c>
+      <c r="O65">
+        <v>9785</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="8"/>
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
